--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业主营业务收入.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业主营业务收入.xlsx
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.280000000000115</v>
+        <v>1.560000000000202</v>
       </c>
       <c r="C4" t="n">
         <v>635.62</v>
@@ -2234,7 +2234,7 @@
         <v>24.86</v>
       </c>
       <c r="H4" t="n">
-        <v>60.19999999999999</v>
+        <v>21.8</v>
       </c>
       <c r="I4" t="n">
         <v>247.22</v>
@@ -2297,7 +2297,7 @@
         <v>7.26</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.21999999999989</v>
+        <v>0.9099999999998598</v>
       </c>
       <c r="AD4" t="n">
         <v>572.52</v>
@@ -2306,7 +2306,7 @@
         <v>17.2</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.800000000000001</v>
+        <v>0.1200000000000012</v>
       </c>
       <c r="AG4" t="n">
         <v>108.38</v>
@@ -2315,7 +2315,7 @@
         <v>19.08</v>
       </c>
       <c r="AI4" t="n">
-        <v>391.2300000000032</v>
+        <v>57.3000000000101</v>
       </c>
       <c r="AJ4" t="n">
         <v>26756.37</v>
@@ -2324,7 +2324,7 @@
         <v>15.85</v>
       </c>
       <c r="AL4" t="n">
-        <v>14.10999999999999</v>
+        <v>4.949999999999941</v>
       </c>
       <c r="AM4" t="n">
         <v>163.97</v>
@@ -2333,7 +2333,7 @@
         <v>12.87</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.00999999999999</v>
+        <v>4.829999999999982</v>
       </c>
       <c r="AP4" t="n">
         <v>906.13</v>
@@ -2369,7 +2369,7 @@
         <v>16.37</v>
       </c>
       <c r="BA4" t="n">
-        <v>6.129999999999988</v>
+        <v>4.729999999999954</v>
       </c>
       <c r="BB4" t="n">
         <v>184.67</v>
@@ -2423,7 +2423,7 @@
         <v>17.64</v>
       </c>
       <c r="BS4" t="n">
-        <v>40.42999999999984</v>
+        <v>2.630000000000109</v>
       </c>
       <c r="BT4" t="n">
         <v>2184.97</v>
@@ -2450,7 +2450,7 @@
         <v>15.47</v>
       </c>
       <c r="CB4" t="n">
-        <v>11.44000000000005</v>
+        <v>2.090000000000055</v>
       </c>
       <c r="CC4" t="n">
         <v>366.16</v>
@@ -2495,7 +2495,7 @@
         <v>7.57</v>
       </c>
       <c r="CQ4" t="n">
-        <v>12.67999999999999</v>
+        <v>8.15999999999995</v>
       </c>
       <c r="CR4" t="n">
         <v>492.75</v>
@@ -2504,7 +2504,7 @@
         <v>17.09</v>
       </c>
       <c r="CT4" t="n">
-        <v>21.9799999999999</v>
+        <v>5.479999999999901</v>
       </c>
       <c r="CU4" t="n">
         <v>700.22</v>
@@ -2522,7 +2522,7 @@
         <v>13.66</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2.02</v>
+        <v>0.7800000000000042</v>
       </c>
       <c r="DA4" t="n">
         <v>89.84999999999999</v>
@@ -2549,7 +2549,7 @@
         <v>12.58</v>
       </c>
       <c r="DI4" t="n">
-        <v>15.95999999999999</v>
+        <v>13.95999999999999</v>
       </c>
       <c r="DJ4" t="n">
         <v>551.11</v>
@@ -2558,7 +2558,7 @@
         <v>10.39</v>
       </c>
       <c r="DL4" t="n">
-        <v>36.36999999999989</v>
+        <v>4.089999999999748</v>
       </c>
       <c r="DM4" t="n">
         <v>1672.44</v>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.329999999999899</v>
+        <v>1.449999999999648</v>
       </c>
       <c r="C5" t="n">
         <v>826.13</v>
@@ -2712,7 +2712,7 @@
         <v>13.92</v>
       </c>
       <c r="E5" t="n">
-        <v>36.09999999999985</v>
+        <v>30.41999999999933</v>
       </c>
       <c r="F5" t="n">
         <v>2244.65</v>
@@ -2757,7 +2757,7 @@
         <v>8.4</v>
       </c>
       <c r="T5" t="n">
-        <v>99.07000000000005</v>
+        <v>90.9100000000002</v>
       </c>
       <c r="U5" t="n">
         <v>477.45</v>
@@ -2775,7 +2775,7 @@
         <v>12.42</v>
       </c>
       <c r="Z5" t="n">
-        <v>46.47999999999999</v>
+        <v>43.27999999999991</v>
       </c>
       <c r="AA5" t="n">
         <v>232.8</v>
@@ -2784,7 +2784,7 @@
         <v>7.24</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.26</v>
+        <v>113.0000000000004</v>
       </c>
       <c r="AD5" t="n">
         <v>746.1799999999999</v>
@@ -2793,7 +2793,7 @@
         <v>16.04</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.699999999999999</v>
+        <v>0.6599999999999955</v>
       </c>
       <c r="AG5" t="n">
         <v>139.06</v>
@@ -2802,7 +2802,7 @@
         <v>17.78</v>
       </c>
       <c r="AI5" t="n">
-        <v>367.1799999999967</v>
+        <v>29.95999999998114</v>
       </c>
       <c r="AJ5" t="n">
         <v>34535.81</v>
@@ -2811,7 +2811,7 @@
         <v>15.2</v>
       </c>
       <c r="AL5" t="n">
-        <v>44.72999999999999</v>
+        <v>2.030000000000097</v>
       </c>
       <c r="AM5" t="n">
         <v>209.93</v>
@@ -2820,7 +2820,7 @@
         <v>5.94</v>
       </c>
       <c r="AO5" t="n">
-        <v>19.10000000000002</v>
+        <v>0.2600000000000477</v>
       </c>
       <c r="AP5" t="n">
         <v>1193.19</v>
@@ -2838,7 +2838,7 @@
         <v>10.84</v>
       </c>
       <c r="AU5" t="n">
-        <v>4.77999999999999</v>
+        <v>1.54999999999999</v>
       </c>
       <c r="AV5" t="n">
         <v>147.04</v>
@@ -2847,7 +2847,7 @@
         <v>20.46</v>
       </c>
       <c r="AX5" t="n">
-        <v>14.1099999999999</v>
+        <v>3.459999999999269</v>
       </c>
       <c r="AY5" t="n">
         <v>874.77</v>
@@ -2874,7 +2874,7 @@
         <v>5.03</v>
       </c>
       <c r="BG5" t="n">
-        <v>60.42000000000002</v>
+        <v>38.98000000000008</v>
       </c>
       <c r="BH5" t="n">
         <v>304.51</v>
@@ -2883,7 +2883,7 @@
         <v>11</v>
       </c>
       <c r="BJ5" t="n">
-        <v>3.599999999999994</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="BK5" t="n">
         <v>634.63</v>
@@ -2901,7 +2901,7 @@
         <v>24.24</v>
       </c>
       <c r="BP5" t="n">
-        <v>108.1399999999999</v>
+        <v>63.77999999999989</v>
       </c>
       <c r="BQ5" t="n">
         <v>534.5</v>
@@ -2910,7 +2910,7 @@
         <v>16.63</v>
       </c>
       <c r="BS5" t="n">
-        <v>546.9100000000003</v>
+        <v>460.7900000000004</v>
       </c>
       <c r="BT5" t="n">
         <v>2814.44</v>
@@ -2928,7 +2928,7 @@
         <v>27.47</v>
       </c>
       <c r="BY5" t="n">
-        <v>42.36999999999989</v>
+        <v>6.109999999999452</v>
       </c>
       <c r="BZ5" t="n">
         <v>1827.6</v>
@@ -2937,7 +2937,7 @@
         <v>16.21</v>
       </c>
       <c r="CB5" t="n">
-        <v>9.719999999999871</v>
+        <v>3.449999999999706</v>
       </c>
       <c r="CC5" t="n">
         <v>476.82</v>
@@ -2946,7 +2946,7 @@
         <v>14.4</v>
       </c>
       <c r="CE5" t="n">
-        <v>17.8300000000001</v>
+        <v>2.630000000000058</v>
       </c>
       <c r="CF5" t="n">
         <v>1894.5</v>
@@ -2955,7 +2955,7 @@
         <v>21.21</v>
       </c>
       <c r="CH5" t="n">
-        <v>55.73999999999981</v>
+        <v>49.01999999999899</v>
       </c>
       <c r="CI5" t="n">
         <v>1073.07</v>
@@ -2982,7 +2982,7 @@
         <v>5.44</v>
       </c>
       <c r="CQ5" t="n">
-        <v>127.62</v>
+        <v>83.68000000000006</v>
       </c>
       <c r="CR5" t="n">
         <v>634.89</v>
@@ -3000,7 +3000,7 @@
         <v>12.47</v>
       </c>
       <c r="CW5" t="n">
-        <v>19.66000000000008</v>
+        <v>5.780000000000307</v>
       </c>
       <c r="CX5" t="n">
         <v>1278.05</v>
@@ -3009,7 +3009,7 @@
         <v>12.54</v>
       </c>
       <c r="CZ5" t="n">
-        <v>6.109999999999999</v>
+        <v>0.9799999999999971</v>
       </c>
       <c r="DA5" t="n">
         <v>118.68</v>
@@ -3018,7 +3018,7 @@
         <v>13.96</v>
       </c>
       <c r="DC5" t="n">
-        <v>12.45999999999989</v>
+        <v>4.899999999999773</v>
       </c>
       <c r="DD5" t="n">
         <v>559.88</v>
@@ -3027,7 +3027,7 @@
         <v>14.03</v>
       </c>
       <c r="DF5" t="n">
-        <v>27.9699999999998</v>
+        <v>8.63999999999967</v>
       </c>
       <c r="DG5" t="n">
         <v>1390.01</v>
@@ -3045,7 +3045,7 @@
         <v>11.11</v>
       </c>
       <c r="DL5" t="n">
-        <v>429.3300000000002</v>
+        <v>380.6900000000011</v>
       </c>
       <c r="DM5" t="n">
         <v>2151.66</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.09</v>
+        <v>128.8100000000009</v>
       </c>
       <c r="C6" t="n">
         <v>1030.54</v>
@@ -3199,7 +3199,7 @@
         <v>13.51</v>
       </c>
       <c r="E6" t="n">
-        <v>404.4899999999998</v>
+        <v>268.6100000000012</v>
       </c>
       <c r="F6" t="n">
         <v>2747.12</v>
@@ -3208,7 +3208,7 @@
         <v>20.23</v>
       </c>
       <c r="H6" t="n">
-        <v>48.53000000000003</v>
+        <v>1.130000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>392.67</v>
@@ -3217,7 +3217,7 @@
         <v>13.93</v>
       </c>
       <c r="K6" t="n">
-        <v>72.33999999999997</v>
+        <v>56.90000000000003</v>
       </c>
       <c r="L6" t="n">
         <v>436.7</v>
@@ -3226,7 +3226,7 @@
         <v>10.74</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.02999999999999931</v>
       </c>
       <c r="O6" t="n">
         <v>1.85</v>
@@ -3235,7 +3235,7 @@
         <v>19.35</v>
       </c>
       <c r="Q6" t="n">
-        <v>444.8899999999999</v>
+        <v>363.8900000000015</v>
       </c>
       <c r="R6" t="n">
         <v>2793.33</v>
@@ -3253,7 +3253,7 @@
         <v>5.96</v>
       </c>
       <c r="W6" t="n">
-        <v>126.72</v>
+        <v>108.3999999999996</v>
       </c>
       <c r="X6" t="n">
         <v>878.11</v>
@@ -3280,7 +3280,7 @@
         <v>15.95</v>
       </c>
       <c r="AF6" t="n">
-        <v>29.40000000000001</v>
+        <v>24.12000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>179</v>
@@ -3289,7 +3289,7 @@
         <v>21.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>6890.129999999997</v>
+        <v>5981.250000000022</v>
       </c>
       <c r="AJ6" t="n">
         <v>42661.59</v>
@@ -3307,7 +3307,7 @@
         <v>8.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>225.97</v>
+        <v>201.26</v>
       </c>
       <c r="AP6" t="n">
         <v>1482.86</v>
@@ -3316,7 +3316,7 @@
         <v>18.16</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.940000000000026</v>
+        <v>1.790000000000049</v>
       </c>
       <c r="AS6" t="n">
         <v>1077.54</v>
@@ -3325,7 +3325,7 @@
         <v>11.44</v>
       </c>
       <c r="AU6" t="n">
-        <v>29.58000000000001</v>
+        <v>20.15000000000005</v>
       </c>
       <c r="AV6" t="n">
         <v>181.87</v>
@@ -3334,7 +3334,7 @@
         <v>16.36</v>
       </c>
       <c r="AX6" t="n">
-        <v>166.03</v>
+        <v>130.8900000000016</v>
       </c>
       <c r="AY6" t="n">
         <v>1074.85</v>
@@ -3343,7 +3343,7 @@
         <v>15.42</v>
       </c>
       <c r="BA6" t="n">
-        <v>54.25999999999999</v>
+        <v>47.41999999999994</v>
       </c>
       <c r="BB6" t="n">
         <v>302.46</v>
@@ -3352,7 +3352,7 @@
         <v>11.81</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.630000000000003</v>
+        <v>1.989999999999987</v>
       </c>
       <c r="BE6" t="n">
         <v>53.88</v>
@@ -3361,7 +3361,7 @@
         <v>0.97</v>
       </c>
       <c r="BG6" t="n">
-        <v>59.73000000000002</v>
+        <v>4.66999999999998</v>
       </c>
       <c r="BH6" t="n">
         <v>374.27</v>
@@ -3370,7 +3370,7 @@
         <v>11.81</v>
       </c>
       <c r="BJ6" t="n">
-        <v>107.35</v>
+        <v>99.2</v>
       </c>
       <c r="BK6" t="n">
         <v>753.6799999999999</v>
@@ -3388,7 +3388,7 @@
         <v>23.49</v>
       </c>
       <c r="BP6" t="n">
-        <v>98.90000000000009</v>
+        <v>1.850000000000193</v>
       </c>
       <c r="BQ6" t="n">
         <v>651.77</v>
@@ -3415,7 +3415,7 @@
         <v>25.57</v>
       </c>
       <c r="BY6" t="n">
-        <v>385.95</v>
+        <v>307.1200000000015</v>
       </c>
       <c r="BZ6" t="n">
         <v>2351.36</v>
@@ -3433,7 +3433,7 @@
         <v>13.35</v>
       </c>
       <c r="CE6" t="n">
-        <v>6.75</v>
+        <v>0.319999999999931</v>
       </c>
       <c r="CF6" t="n">
         <v>2269.36</v>
@@ -3442,7 +3442,7 @@
         <v>18.68</v>
       </c>
       <c r="CH6" t="n">
-        <v>249.46</v>
+        <v>36.580000000002</v>
       </c>
       <c r="CI6" t="n">
         <v>1379.92</v>
@@ -3451,7 +3451,7 @@
         <v>4.72</v>
       </c>
       <c r="CK6" t="n">
-        <v>380.6000000000004</v>
+        <v>344.7200000000012</v>
       </c>
       <c r="CL6" t="n">
         <v>2342.92</v>
@@ -3469,7 +3469,7 @@
         <v>14.94</v>
       </c>
       <c r="CQ6" t="n">
-        <v>126.59</v>
+        <v>11.65000000000001</v>
       </c>
       <c r="CR6" t="n">
         <v>786.21</v>
@@ -3478,7 +3478,7 @@
         <v>15.73</v>
       </c>
       <c r="CT6" t="n">
-        <v>7.780000000000001</v>
+        <v>1.419999999999192</v>
       </c>
       <c r="CU6" t="n">
         <v>1155.58</v>
@@ -3487,7 +3487,7 @@
         <v>14.04</v>
       </c>
       <c r="CW6" t="n">
-        <v>271.5100000000002</v>
+        <v>227.5699999999993</v>
       </c>
       <c r="CX6" t="n">
         <v>1604.53</v>
@@ -3496,7 +3496,7 @@
         <v>12.35</v>
       </c>
       <c r="CZ6" t="n">
-        <v>24.34999999999999</v>
+        <v>10.78999999999999</v>
       </c>
       <c r="DA6" t="n">
         <v>152.16</v>
@@ -3505,7 +3505,7 @@
         <v>12.02</v>
       </c>
       <c r="DC6" t="n">
-        <v>98.88999999999999</v>
+        <v>60.39000000000059</v>
       </c>
       <c r="DD6" t="n">
         <v>691.54</v>
@@ -3514,7 +3514,7 @@
         <v>14.27</v>
       </c>
       <c r="DF6" t="n">
-        <v>263.8700000000001</v>
+        <v>209.9800000000012</v>
       </c>
       <c r="DG6" t="n">
         <v>1722.1</v>
@@ -3523,7 +3523,7 @@
         <v>12.48</v>
       </c>
       <c r="DI6" t="n">
-        <v>148.2</v>
+        <v>98.0000000000004</v>
       </c>
       <c r="DJ6" t="n">
         <v>869.67</v>
@@ -3532,7 +3532,7 @@
         <v>10.01</v>
       </c>
       <c r="DL6" t="n">
-        <v>404.6999999999998</v>
+        <v>11.7399999999995</v>
       </c>
       <c r="DM6" t="n">
         <v>2625.66</v>
@@ -3541,7 +3541,7 @@
         <v>17.49</v>
       </c>
       <c r="DO6" t="n">
-        <v>12.04</v>
+        <v>8.68</v>
       </c>
       <c r="DP6" t="n">
         <v>74.81</v>
@@ -3695,7 +3695,7 @@
         <v>18.36</v>
       </c>
       <c r="H7" t="n">
-        <v>12.64999999999998</v>
+        <v>11.51999999999998</v>
       </c>
       <c r="I7" t="n">
         <v>458.54</v>
@@ -3704,7 +3704,7 @@
         <v>16.62</v>
       </c>
       <c r="K7" t="n">
-        <v>69.91000000000003</v>
+        <v>1.430000000000035</v>
       </c>
       <c r="L7" t="n">
         <v>513.09</v>
@@ -3713,7 +3713,7 @@
         <v>9.94</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0799999999999999</v>
+        <v>0.02000000000000129</v>
       </c>
       <c r="O7" t="n">
         <v>2.1</v>
@@ -3731,7 +3731,7 @@
         <v>7.33</v>
       </c>
       <c r="T7" t="n">
-        <v>96.42999999999995</v>
+        <v>88.55000000000013</v>
       </c>
       <c r="U7" t="n">
         <v>663.66</v>
@@ -3740,7 +3740,7 @@
         <v>3.19</v>
       </c>
       <c r="W7" t="n">
-        <v>123.6800000000001</v>
+        <v>1.540000000000205</v>
       </c>
       <c r="X7" t="n">
         <v>1030.71</v>
@@ -3749,7 +3749,7 @@
         <v>13.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.729999999999961</v>
+        <v>3.209999999999894</v>
       </c>
       <c r="AA7" t="n">
         <v>337.56</v>
@@ -3758,7 +3758,7 @@
         <v>8.74</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.89</v>
+        <v>124.8499999999996</v>
       </c>
       <c r="AD7" t="n">
         <v>1075.94</v>
@@ -3767,7 +3767,7 @@
         <v>14.61</v>
       </c>
       <c r="AF7" t="n">
-        <v>28.08000000000001</v>
+        <v>1.379999999999999</v>
       </c>
       <c r="AG7" t="n">
         <v>210.63</v>
@@ -3785,7 +3785,7 @@
         <v>13.58</v>
       </c>
       <c r="AL7" t="n">
-        <v>51.86000000000001</v>
+        <v>16.85999999999989</v>
       </c>
       <c r="AM7" t="n">
         <v>316.06</v>
@@ -3803,7 +3803,7 @@
         <v>16.92</v>
       </c>
       <c r="AR7" t="n">
-        <v>166.3</v>
+        <v>156.9899999999998</v>
       </c>
       <c r="AS7" t="n">
         <v>1257.97</v>
@@ -3830,7 +3830,7 @@
         <v>14.72</v>
       </c>
       <c r="BA7" t="n">
-        <v>53.22000000000003</v>
+        <v>0.6700000000000443</v>
       </c>
       <c r="BB7" t="n">
         <v>354.89</v>
@@ -3866,7 +3866,7 @@
         <v>12.54</v>
       </c>
       <c r="BM7" t="n">
-        <v>16.72000000000001</v>
+        <v>12.00000000000005</v>
       </c>
       <c r="BN7" t="n">
         <v>139.29</v>
@@ -3875,7 +3875,7 @@
         <v>21.9</v>
       </c>
       <c r="BP7" t="n">
-        <v>8.109999999999914</v>
+        <v>4.409999999999528</v>
       </c>
       <c r="BQ7" t="n">
         <v>775.42</v>
@@ -3884,7 +3884,7 @@
         <v>16.55</v>
       </c>
       <c r="BS7" t="n">
-        <v>557.7999999999997</v>
+        <v>395.0800000000022</v>
       </c>
       <c r="BT7" t="n">
         <v>4062.66</v>
@@ -3911,7 +3911,7 @@
         <v>16.66</v>
       </c>
       <c r="CB7" t="n">
-        <v>106.83</v>
+        <v>103.3099999999996</v>
       </c>
       <c r="CC7" t="n">
         <v>710.03</v>
@@ -3920,7 +3920,7 @@
         <v>11.48</v>
       </c>
       <c r="CE7" t="n">
-        <v>66.39999999999958</v>
+        <v>39.39999999999958</v>
       </c>
       <c r="CF7" t="n">
         <v>2674.97</v>
@@ -3929,7 +3929,7 @@
         <v>17.94</v>
       </c>
       <c r="CH7" t="n">
-        <v>248.1800000000001</v>
+        <v>54.45999999999989</v>
       </c>
       <c r="CI7" t="n">
         <v>1579.01</v>
@@ -3947,7 +3947,7 @@
         <v>9.77</v>
       </c>
       <c r="CN7" t="n">
-        <v>26.22999999999999</v>
+        <v>25.19000000000003</v>
       </c>
       <c r="CO7" t="n">
         <v>186.6</v>
@@ -3956,7 +3956,7 @@
         <v>12.58</v>
       </c>
       <c r="CQ7" t="n">
-        <v>122.8499999999999</v>
+        <v>99.5499999999999</v>
       </c>
       <c r="CR7" t="n">
         <v>916.84</v>
@@ -3965,7 +3965,7 @@
         <v>13.76</v>
       </c>
       <c r="CT7" t="n">
-        <v>184.6299999999999</v>
+        <v>163.0500000000011</v>
       </c>
       <c r="CU7" t="n">
         <v>1365.4</v>
@@ -3992,7 +3992,7 @@
         <v>14.92</v>
       </c>
       <c r="DC7" t="n">
-        <v>97.49000000000001</v>
+        <v>11.05999999999992</v>
       </c>
       <c r="DD7" t="n">
         <v>806.1900000000001</v>
@@ -4010,7 +4010,7 @@
         <v>11.77</v>
       </c>
       <c r="DI7" t="n">
-        <v>138.96</v>
+        <v>3.309999999999917</v>
       </c>
       <c r="DJ7" t="n">
         <v>1027.24</v>
@@ -4028,7 +4028,7 @@
         <v>17.34</v>
       </c>
       <c r="DO7" t="n">
-        <v>11.23</v>
+        <v>0.03000000000000114</v>
       </c>
       <c r="DP7" t="n">
         <v>87.66</v>
@@ -4173,7 +4173,7 @@
         <v>12.84</v>
       </c>
       <c r="E8" t="n">
-        <v>57.08999999999929</v>
+        <v>25.45999999999878</v>
       </c>
       <c r="F8" t="n">
         <v>3657.65</v>
@@ -4182,7 +4182,7 @@
         <v>17.02</v>
       </c>
       <c r="H8" t="n">
-        <v>19.95999999999998</v>
+        <v>7.309999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>526.8099999999999</v>
@@ -4191,7 +4191,7 @@
         <v>15.94</v>
       </c>
       <c r="K8" t="n">
-        <v>4.419999999999902</v>
+        <v>1.559999999999832</v>
       </c>
       <c r="L8" t="n">
         <v>584.99</v>
@@ -4200,7 +4200,7 @@
         <v>9.02</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07000000000000051</v>
+        <v>0.01999999999999991</v>
       </c>
       <c r="O8" t="n">
         <v>2.3</v>
@@ -4209,7 +4209,7 @@
         <v>14.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.20000000000027</v>
+        <v>22.83999999999968</v>
       </c>
       <c r="R8" t="n">
         <v>3726.17</v>
@@ -4227,7 +4227,7 @@
         <v>2.96</v>
       </c>
       <c r="W8" t="n">
-        <v>13.54999999999988</v>
+        <v>10.46999999999946</v>
       </c>
       <c r="X8" t="n">
         <v>1178.75</v>
@@ -4236,7 +4236,7 @@
         <v>14.42</v>
       </c>
       <c r="Z8" t="n">
-        <v>49.27000000000004</v>
+        <v>32.63000000000029</v>
       </c>
       <c r="AA8" t="n">
         <v>396.33</v>
@@ -4263,7 +4263,7 @@
         <v>16.94</v>
       </c>
       <c r="AI8" t="n">
-        <v>435.0199999999968</v>
+        <v>136.7399999999834</v>
       </c>
       <c r="AJ8" t="n">
         <v>57788.16</v>
@@ -4317,7 +4317,7 @@
         <v>13.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.539999999999964</v>
+        <v>0.1999999999998754</v>
       </c>
       <c r="BB8" t="n">
         <v>410.35</v>
@@ -4335,7 +4335,7 @@
         <v>-4.42</v>
       </c>
       <c r="BG8" t="n">
-        <v>21.63999999999999</v>
+        <v>16.28000000000009</v>
       </c>
       <c r="BH8" t="n">
         <v>496.73</v>
@@ -4344,7 +4344,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="BJ8" t="n">
-        <v>20.54000000000019</v>
+        <v>8.44000000000028</v>
       </c>
       <c r="BK8" t="n">
         <v>1072.05</v>
@@ -4353,7 +4353,7 @@
         <v>16.86</v>
       </c>
       <c r="BM8" t="n">
-        <v>14.16</v>
+        <v>0.9799999999999596</v>
       </c>
       <c r="BN8" t="n">
         <v>155.23</v>
@@ -4362,7 +4362,7 @@
         <v>18.51</v>
       </c>
       <c r="BP8" t="n">
-        <v>98.24000000000001</v>
+        <v>67.65000000000055</v>
       </c>
       <c r="BQ8" t="n">
         <v>909.87</v>
@@ -4380,7 +4380,7 @@
         <v>11.63</v>
       </c>
       <c r="BV8" t="n">
-        <v>638.2300000000005</v>
+        <v>531.6300000000019</v>
       </c>
       <c r="BW8" t="n">
         <v>5248.2</v>
@@ -4407,7 +4407,7 @@
         <v>11.31</v>
       </c>
       <c r="CE8" t="n">
-        <v>410.5500000000002</v>
+        <v>185.4500000000018</v>
       </c>
       <c r="CF8" t="n">
         <v>3027.68</v>
@@ -4425,7 +4425,7 @@
         <v>0.91</v>
       </c>
       <c r="CK8" t="n">
-        <v>25.63999999999987</v>
+        <v>12.76000000000027</v>
       </c>
       <c r="CL8" t="n">
         <v>3147.68</v>
@@ -4461,7 +4461,7 @@
         <v>11.4</v>
       </c>
       <c r="CW8" t="n">
-        <v>20.11000000000007</v>
+        <v>12.79000000000127</v>
       </c>
       <c r="CX8" t="n">
         <v>2198.57</v>
@@ -4470,7 +4470,7 @@
         <v>11.43</v>
       </c>
       <c r="CZ8" t="n">
-        <v>17.66999999999999</v>
+        <v>8.349999999999959</v>
       </c>
       <c r="DA8" t="n">
         <v>213.73</v>
@@ -4479,7 +4479,7 @@
         <v>10.25</v>
       </c>
       <c r="DC8" t="n">
-        <v>31.98999999999998</v>
+        <v>9.87000000000014</v>
       </c>
       <c r="DD8" t="n">
         <v>925.53</v>
@@ -4488,7 +4488,7 @@
         <v>15.47</v>
       </c>
       <c r="DF8" t="n">
-        <v>268.5599999999999</v>
+        <v>141.3600000000002</v>
       </c>
       <c r="DG8" t="n">
         <v>2314.34</v>
@@ -4497,7 +4497,7 @@
         <v>10.7</v>
       </c>
       <c r="DI8" t="n">
-        <v>6.049999999999983</v>
+        <v>2.740000000000066</v>
       </c>
       <c r="DJ8" t="n">
         <v>1168.64</v>
@@ -4506,7 +4506,7 @@
         <v>8.44</v>
       </c>
       <c r="DL8" t="n">
-        <v>51.59999999999991</v>
+        <v>42.79999999999882</v>
       </c>
       <c r="DM8" t="n">
         <v>3652.3</v>
@@ -4515,7 +4515,7 @@
         <v>19.89</v>
       </c>
       <c r="DO8" t="n">
-        <v>3.19</v>
+        <v>3.129999999999998</v>
       </c>
       <c r="DP8" t="n">
         <v>101.87</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.1499999999999</v>
+        <v>121.3499999999991</v>
       </c>
       <c r="C9" t="n">
         <v>1558.06</v>
@@ -4660,7 +4660,7 @@
         <v>12.95</v>
       </c>
       <c r="E9" t="n">
-        <v>440.5700000000002</v>
+        <v>307.1000000000045</v>
       </c>
       <c r="F9" t="n">
         <v>4196.01</v>
@@ -4678,7 +4678,7 @@
         <v>13.71</v>
       </c>
       <c r="K9" t="n">
-        <v>5.760000000000105</v>
+        <v>1.340000000000202</v>
       </c>
       <c r="L9" t="n">
         <v>669.89</v>
@@ -4687,7 +4687,7 @@
         <v>9.65</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2999999999999998</v>
+        <v>0.0199999999999978</v>
       </c>
       <c r="O9" t="n">
         <v>2.7</v>
@@ -4696,7 +4696,7 @@
         <v>15.15</v>
       </c>
       <c r="Q9" t="n">
-        <v>475.5399999999995</v>
+        <v>350.7799999999993</v>
       </c>
       <c r="R9" t="n">
         <v>4215.3</v>
@@ -4732,7 +4732,7 @@
         <v>10.56</v>
       </c>
       <c r="AC9" t="n">
-        <v>156.3099999999999</v>
+        <v>111.5500000000003</v>
       </c>
       <c r="AD9" t="n">
         <v>1414.96</v>
@@ -4741,7 +4741,7 @@
         <v>13.94</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.780000000000022</v>
+        <v>0.1900000000000823</v>
       </c>
       <c r="AG9" t="n">
         <v>274.68</v>
@@ -4750,7 +4750,7 @@
         <v>17.43</v>
       </c>
       <c r="AI9" t="n">
-        <v>7351.700000000004</v>
+        <v>6357.32000000005</v>
       </c>
       <c r="AJ9" t="n">
         <v>65832.86</v>
@@ -4786,7 +4786,7 @@
         <v>7.68</v>
       </c>
       <c r="AU9" t="n">
-        <v>29.38</v>
+        <v>27.89999999999996</v>
       </c>
       <c r="AV9" t="n">
         <v>282.89</v>
@@ -4795,7 +4795,7 @@
         <v>11.4</v>
       </c>
       <c r="AX9" t="n">
-        <v>16.28999999999988</v>
+        <v>0.9300000000002058</v>
       </c>
       <c r="AY9" t="n">
         <v>1660.81</v>
@@ -4804,7 +4804,7 @@
         <v>13.52</v>
       </c>
       <c r="BA9" t="n">
-        <v>52.72000000000003</v>
+        <v>47.23000000000021</v>
       </c>
       <c r="BB9" t="n">
         <v>467.78</v>
@@ -4813,7 +4813,7 @@
         <v>8.1</v>
       </c>
       <c r="BD9" t="n">
-        <v>5.779999999999987</v>
+        <v>4.060000000000016</v>
       </c>
       <c r="BE9" t="n">
         <v>68.61</v>
@@ -4822,7 +4822,7 @@
         <v>-8.26</v>
       </c>
       <c r="BG9" t="n">
-        <v>64.29999999999995</v>
+        <v>3.39999999999992</v>
       </c>
       <c r="BH9" t="n">
         <v>584.27</v>
@@ -4831,7 +4831,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="BJ9" t="n">
-        <v>122.55</v>
+        <v>76.68999999999896</v>
       </c>
       <c r="BK9" t="n">
         <v>1257.22</v>
@@ -4858,7 +4858,7 @@
         <v>17.58</v>
       </c>
       <c r="BS9" t="n">
-        <v>540.5599999999995</v>
+        <v>206.6399999999959</v>
       </c>
       <c r="BT9" t="n">
         <v>5374.55</v>
@@ -4876,7 +4876,7 @@
         <v>21.4</v>
       </c>
       <c r="BY9" t="n">
-        <v>372.3099999999999</v>
+        <v>360.9499999999991</v>
       </c>
       <c r="BZ9" t="n">
         <v>3638.96</v>
@@ -4885,7 +4885,7 @@
         <v>15</v>
       </c>
       <c r="CB9" t="n">
-        <v>89.98000000000002</v>
+        <v>69.46000000000004</v>
       </c>
       <c r="CC9" t="n">
         <v>950.23</v>
@@ -4903,7 +4903,7 @@
         <v>9.58</v>
       </c>
       <c r="CH9" t="n">
-        <v>266.23</v>
+        <v>136.7900000000016</v>
       </c>
       <c r="CI9" t="n">
         <v>2060.86</v>
@@ -4912,7 +4912,7 @@
         <v>-1.67</v>
       </c>
       <c r="CK9" t="n">
-        <v>19.57000000000022</v>
+        <v>6.809999999999951</v>
       </c>
       <c r="CL9" t="n">
         <v>3584.04</v>
@@ -4921,7 +4921,7 @@
         <v>8.59</v>
       </c>
       <c r="CN9" t="n">
-        <v>26.00999999999999</v>
+        <v>23.00999999999987</v>
       </c>
       <c r="CO9" t="n">
         <v>230.64</v>
@@ -4930,7 +4930,7 @@
         <v>5.33</v>
       </c>
       <c r="CQ9" t="n">
-        <v>6.8299999999997</v>
+        <v>1.059999999999505</v>
       </c>
       <c r="CR9" t="n">
         <v>1208.79</v>
@@ -4939,7 +4939,7 @@
         <v>14.32</v>
       </c>
       <c r="CT9" t="n">
-        <v>196.25</v>
+        <v>74.37</v>
       </c>
       <c r="CU9" t="n">
         <v>1804</v>
@@ -4957,7 +4957,7 @@
         <v>11.46</v>
       </c>
       <c r="CZ9" t="n">
-        <v>10.36000000000001</v>
+        <v>2.010000000000051</v>
       </c>
       <c r="DA9" t="n">
         <v>241.6</v>
@@ -4966,7 +4966,7 @@
         <v>14.22</v>
       </c>
       <c r="DC9" t="n">
-        <v>117.47</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="DD9" t="n">
         <v>1069.05</v>
@@ -4984,7 +4984,7 @@
         <v>12.24</v>
       </c>
       <c r="DI9" t="n">
-        <v>113.1700000000001</v>
+        <v>92.28000000000006</v>
       </c>
       <c r="DJ9" t="n">
         <v>1323.21</v>
@@ -4993,7 +4993,7 @@
         <v>8.220000000000001</v>
       </c>
       <c r="DL9" t="n">
-        <v>439.8600000000001</v>
+        <v>246.6600000000021</v>
       </c>
       <c r="DM9" t="n">
         <v>4068.13</v>
@@ -5156,7 +5156,7 @@
         <v>16.02</v>
       </c>
       <c r="H10" t="n">
-        <v>71.16999999999996</v>
+        <v>44.36999999999978</v>
       </c>
       <c r="I10" t="n">
         <v>691.71</v>
@@ -5165,7 +5165,7 @@
         <v>10.97</v>
       </c>
       <c r="K10" t="n">
-        <v>75.53999999999996</v>
+        <v>65.75999999999925</v>
       </c>
       <c r="L10" t="n">
         <v>751.21</v>
@@ -5183,7 +5183,7 @@
         <v>15.17</v>
       </c>
       <c r="Q10" t="n">
-        <v>460.54</v>
+        <v>21.20000000000084</v>
       </c>
       <c r="R10" t="n">
         <v>4718.69</v>
@@ -5192,7 +5192,7 @@
         <v>6.27</v>
       </c>
       <c r="T10" t="n">
-        <v>105.96</v>
+        <v>85.36000000000078</v>
       </c>
       <c r="U10" t="n">
         <v>955.84</v>
@@ -5201,7 +5201,7 @@
         <v>0.77</v>
       </c>
       <c r="W10" t="n">
-        <v>12.55000000000021</v>
+        <v>12.11000000000061</v>
       </c>
       <c r="X10" t="n">
         <v>1511.39</v>
@@ -5210,7 +5210,7 @@
         <v>15.84</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.550000000000004</v>
+        <v>0.2200000000000699</v>
       </c>
       <c r="AA10" t="n">
         <v>512.53</v>
@@ -5228,7 +5228,7 @@
         <v>14.6</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.03000000000001</v>
+        <v>6.089999999999802</v>
       </c>
       <c r="AG10" t="n">
         <v>311.21</v>
@@ -5246,7 +5246,7 @@
         <v>11.83</v>
       </c>
       <c r="AL10" t="n">
-        <v>50.99000000000001</v>
+        <v>48.9100000000001</v>
       </c>
       <c r="AM10" t="n">
         <v>490.35</v>
@@ -5255,7 +5255,7 @@
         <v>5.59</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.14999999999961</v>
+        <v>4.029999999999607</v>
       </c>
       <c r="AP10" t="n">
         <v>2520.1</v>
@@ -5264,7 +5264,7 @@
         <v>15.32</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.089999999999918</v>
+        <v>0.2099999999999218</v>
       </c>
       <c r="AS10" t="n">
         <v>1796.78</v>
@@ -5282,7 +5282,7 @@
         <v>10.68</v>
       </c>
       <c r="AX10" t="n">
-        <v>182.74</v>
+        <v>140.62</v>
       </c>
       <c r="AY10" t="n">
         <v>1883.62</v>
@@ -5291,7 +5291,7 @@
         <v>13.19</v>
       </c>
       <c r="BA10" t="n">
-        <v>49.54999999999995</v>
+        <v>1.449999999999818</v>
       </c>
       <c r="BB10" t="n">
         <v>528.21</v>
@@ -5327,7 +5327,7 @@
         <v>19.88</v>
       </c>
       <c r="BM10" t="n">
-        <v>18.64999999999998</v>
+        <v>0.5699999999999399</v>
       </c>
       <c r="BN10" t="n">
         <v>192.69</v>
@@ -5336,7 +5336,7 @@
         <v>17.61</v>
       </c>
       <c r="BP10" t="n">
-        <v>9.800000000000097</v>
+        <v>3.570000000000206</v>
       </c>
       <c r="BQ10" t="n">
         <v>1151.7</v>
@@ -5381,7 +5381,7 @@
         <v>12.34</v>
       </c>
       <c r="CE10" t="n">
-        <v>410.3800000000001</v>
+        <v>285.2200000000021</v>
       </c>
       <c r="CF10" t="n">
         <v>3796.56</v>
@@ -5390,7 +5390,7 @@
         <v>7.17</v>
       </c>
       <c r="CH10" t="n">
-        <v>238.1900000000001</v>
+        <v>4.319999999999709</v>
       </c>
       <c r="CI10" t="n">
         <v>2286.2</v>
@@ -5399,7 +5399,7 @@
         <v>-3.22</v>
       </c>
       <c r="CK10" t="n">
-        <v>13.63999999999982</v>
+        <v>0.01999999999991786</v>
       </c>
       <c r="CL10" t="n">
         <v>4037.13</v>
@@ -5417,7 +5417,7 @@
         <v>6</v>
       </c>
       <c r="CQ10" t="n">
-        <v>131.8100000000002</v>
+        <v>121.800000000002</v>
       </c>
       <c r="CR10" t="n">
         <v>1346.81</v>
@@ -5426,7 +5426,7 @@
         <v>12.91</v>
       </c>
       <c r="CT10" t="n">
-        <v>194.22</v>
+        <v>28.44</v>
       </c>
       <c r="CU10" t="n">
         <v>2038.22</v>
@@ -5435,7 +5435,7 @@
         <v>11.95</v>
       </c>
       <c r="CW10" t="n">
-        <v>287.2599999999998</v>
+        <v>233.9799999999998</v>
       </c>
       <c r="CX10" t="n">
         <v>2844.38</v>
@@ -5462,7 +5462,7 @@
         <v>14.98</v>
       </c>
       <c r="DF10" t="n">
-        <v>24.08000000000027</v>
+        <v>8.230000000000249</v>
       </c>
       <c r="DG10" t="n">
         <v>2969.67</v>
@@ -5480,7 +5480,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="DL10" t="n">
-        <v>433.3800000000001</v>
+        <v>45.11999999999989</v>
       </c>
       <c r="DM10" t="n">
         <v>4530.75</v>
@@ -5489,7 +5489,7 @@
         <v>14.85</v>
       </c>
       <c r="DO10" t="n">
-        <v>13.72</v>
+        <v>11.84</v>
       </c>
       <c r="DP10" t="n">
         <v>134.16</v>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.3900000000001</v>
+        <v>12.98999999999966</v>
       </c>
       <c r="C11" t="n">
         <v>1929.2</v>
@@ -5634,7 +5634,7 @@
         <v>12.29</v>
       </c>
       <c r="E11" t="n">
-        <v>184.6099999999992</v>
+        <v>59.74999999999861</v>
       </c>
       <c r="F11" t="n">
         <v>5260.77</v>
@@ -5661,7 +5661,7 @@
         <v>9.32</v>
       </c>
       <c r="N11" t="n">
-        <v>2.55</v>
+        <v>2.549999999999998</v>
       </c>
       <c r="O11" t="n">
         <v>3.29</v>
@@ -5670,7 +5670,7 @@
         <v>11.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.54</v>
+        <v>375.1399999999983</v>
       </c>
       <c r="R11" t="n">
         <v>5192.21</v>
@@ -5679,7 +5679,7 @@
         <v>5.95</v>
       </c>
       <c r="T11" t="n">
-        <v>871.0699999999999</v>
+        <v>478.1299999999987</v>
       </c>
       <c r="U11" t="n">
         <v>1051.78</v>
@@ -5688,7 +5688,7 @@
         <v>-0.26</v>
       </c>
       <c r="W11" t="n">
-        <v>32.15999999999991</v>
+        <v>7.169999999999391</v>
       </c>
       <c r="X11" t="n">
         <v>1695.94</v>
@@ -5697,7 +5697,7 @@
         <v>16.59</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.68000000000006</v>
+        <v>15.46999999999985</v>
       </c>
       <c r="AA11" t="n">
         <v>569.33</v>
@@ -5706,7 +5706,7 @@
         <v>9.48</v>
       </c>
       <c r="AC11" t="n">
-        <v>20.9899999999997</v>
+        <v>3.949999999998492</v>
       </c>
       <c r="AD11" t="n">
         <v>1784.72</v>
@@ -5715,7 +5715,7 @@
         <v>14.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>39.48999999999995</v>
+        <v>7.930000000000117</v>
       </c>
       <c r="AG11" t="n">
         <v>352.43</v>
@@ -5724,7 +5724,7 @@
         <v>15.66</v>
       </c>
       <c r="AI11" t="n">
-        <v>1797.060000000012</v>
+        <v>1096.700000000056</v>
       </c>
       <c r="AJ11" t="n">
         <v>81853.84</v>
@@ -5742,7 +5742,7 @@
         <v>6.05</v>
       </c>
       <c r="AO11" t="n">
-        <v>74.75000000000051</v>
+        <v>30.83000000000207</v>
       </c>
       <c r="AP11" t="n">
         <v>2811.88</v>
@@ -5751,7 +5751,7 @@
         <v>15.32</v>
       </c>
       <c r="AR11" t="n">
-        <v>53.97</v>
+        <v>35.93000000000032</v>
       </c>
       <c r="AS11" t="n">
         <v>1996.87</v>
@@ -5787,7 +5787,7 @@
         <v>12.27</v>
       </c>
       <c r="BD11" t="n">
-        <v>8.449999999999978</v>
+        <v>1.129999999999872</v>
       </c>
       <c r="BE11" t="n">
         <v>79.89</v>
@@ -5796,7 +5796,7 @@
         <v>-9.4</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.6099999999999</v>
+        <v>0.7999999999996148</v>
       </c>
       <c r="BH11" t="n">
         <v>726.55</v>
@@ -5805,7 +5805,7 @@
         <v>8.75</v>
       </c>
       <c r="BJ11" t="n">
-        <v>27.4800000000001</v>
+        <v>8.440000000000278</v>
       </c>
       <c r="BK11" t="n">
         <v>1559.53</v>
@@ -5814,7 +5814,7 @@
         <v>18.86</v>
       </c>
       <c r="BM11" t="n">
-        <v>8.190000000000019</v>
+        <v>3.100000000000069</v>
       </c>
       <c r="BN11" t="n">
         <v>212.63</v>
@@ -5823,7 +5823,7 @@
         <v>16.52</v>
       </c>
       <c r="BP11" t="n">
-        <v>38.6600000000001</v>
+        <v>18.14999999999938</v>
       </c>
       <c r="BQ11" t="n">
         <v>1314.86</v>
@@ -5841,7 +5841,7 @@
         <v>11.04</v>
       </c>
       <c r="BV11" t="n">
-        <v>117.4200000000001</v>
+        <v>77.70000000000256</v>
       </c>
       <c r="BW11" t="n">
         <v>7635.97</v>
@@ -5850,7 +5850,7 @@
         <v>19.26</v>
       </c>
       <c r="BY11" t="n">
-        <v>102.8900000000008</v>
+        <v>44.93000000000144</v>
       </c>
       <c r="BZ11" t="n">
         <v>4431.39</v>
@@ -5859,7 +5859,7 @@
         <v>12.95</v>
       </c>
       <c r="CB11" t="n">
-        <v>42.89999999999999</v>
+        <v>16.83000000000001</v>
       </c>
       <c r="CC11" t="n">
         <v>1191.84</v>
@@ -5868,7 +5868,7 @@
         <v>12.25</v>
       </c>
       <c r="CE11" t="n">
-        <v>378.6299999999997</v>
+        <v>30.82999999999862</v>
       </c>
       <c r="CF11" t="n">
         <v>4144.2</v>
@@ -5877,7 +5877,7 @@
         <v>4.84</v>
       </c>
       <c r="CH11" t="n">
-        <v>75.9700000000002</v>
+        <v>67.33000000000078</v>
       </c>
       <c r="CI11" t="n">
         <v>2462.23</v>
@@ -5886,7 +5886,7 @@
         <v>-5.31</v>
       </c>
       <c r="CK11" t="n">
-        <v>109.7300000000005</v>
+        <v>61.98000000000118</v>
       </c>
       <c r="CL11" t="n">
         <v>4508.2</v>
@@ -5895,7 +5895,7 @@
         <v>7.56</v>
       </c>
       <c r="CN11" t="n">
-        <v>3.939999999999969</v>
+        <v>3.419999999999888</v>
       </c>
       <c r="CO11" t="n">
         <v>287.7</v>
@@ -5913,7 +5913,7 @@
         <v>13.11</v>
       </c>
       <c r="CT11" t="n">
-        <v>62.27000000000001</v>
+        <v>5.390000000000011</v>
       </c>
       <c r="CU11" t="n">
         <v>2265.45</v>
@@ -5931,7 +5931,7 @@
         <v>11.13</v>
       </c>
       <c r="CZ11" t="n">
-        <v>6.700000000000049</v>
+        <v>6.500000000000131</v>
       </c>
       <c r="DA11" t="n">
         <v>304.52</v>
@@ -5940,7 +5940,7 @@
         <v>13.78</v>
       </c>
       <c r="DC11" t="n">
-        <v>40.64999999999989</v>
+        <v>25.64999999999989</v>
       </c>
       <c r="DD11" t="n">
         <v>1341.99</v>
@@ -5949,7 +5949,7 @@
         <v>14.73</v>
       </c>
       <c r="DF11" t="n">
-        <v>106.2099999999996</v>
+        <v>57.43999999999859</v>
       </c>
       <c r="DG11" t="n">
         <v>3327.33</v>
@@ -5958,7 +5958,7 @@
         <v>12.71</v>
       </c>
       <c r="DI11" t="n">
-        <v>47.08000000000021</v>
+        <v>27.00000000000141</v>
       </c>
       <c r="DJ11" t="n">
         <v>1574.22</v>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>245.07</v>
+        <v>49.61000000000025</v>
       </c>
       <c r="C12" t="n">
         <v>2196.64</v>
@@ -6139,7 +6139,7 @@
         <v>11.5</v>
       </c>
       <c r="K12" t="n">
-        <v>24.5899999999999</v>
+        <v>6.229999999999769</v>
       </c>
       <c r="L12" t="n">
         <v>943.8</v>
@@ -6175,7 +6175,7 @@
         <v>2.07</v>
       </c>
       <c r="W12" t="n">
-        <v>68.81999999999999</v>
+        <v>2.7100000000016</v>
       </c>
       <c r="X12" t="n">
         <v>1904.45</v>
@@ -6193,7 +6193,7 @@
         <v>8.81</v>
       </c>
       <c r="AC12" t="n">
-        <v>66.1700000000001</v>
+        <v>7.770000000003103</v>
       </c>
       <c r="AD12" t="n">
         <v>2005.91</v>
@@ -6211,7 +6211,7 @@
         <v>14.61</v>
       </c>
       <c r="AI12" t="n">
-        <v>2472.719999999994</v>
+        <v>675.6599999999819</v>
       </c>
       <c r="AJ12" t="n">
         <v>92277.99000000001</v>
@@ -6238,7 +6238,7 @@
         <v>14.98</v>
       </c>
       <c r="AR12" t="n">
-        <v>52.24999999999997</v>
+        <v>5.369999999999891</v>
       </c>
       <c r="AS12" t="n">
         <v>2253.27</v>
@@ -6247,7 +6247,7 @@
         <v>6.71</v>
       </c>
       <c r="AU12" t="n">
-        <v>43.37</v>
+        <v>17.45000000000018</v>
       </c>
       <c r="AV12" t="n">
         <v>389.7</v>
@@ -6265,7 +6265,7 @@
         <v>13.2</v>
       </c>
       <c r="BA12" t="n">
-        <v>72.86</v>
+        <v>11.63999999999996</v>
       </c>
       <c r="BB12" t="n">
         <v>664.28</v>
@@ -6283,7 +6283,7 @@
         <v>-6.03</v>
       </c>
       <c r="BG12" t="n">
-        <v>23.33000000000006</v>
+        <v>12.51000000000102</v>
       </c>
       <c r="BH12" t="n">
         <v>799.62</v>
@@ -6292,7 +6292,7 @@
         <v>8.31</v>
       </c>
       <c r="BJ12" t="n">
-        <v>99.68000000000001</v>
+        <v>37.35999999999915</v>
       </c>
       <c r="BK12" t="n">
         <v>1738.18</v>
@@ -6301,7 +6301,7 @@
         <v>18.12</v>
       </c>
       <c r="BM12" t="n">
-        <v>16.57</v>
+        <v>0.1899999999999622</v>
       </c>
       <c r="BN12" t="n">
         <v>242.8</v>
@@ -6310,7 +6310,7 @@
         <v>15.99</v>
       </c>
       <c r="BP12" t="n">
-        <v>44.0199999999999</v>
+        <v>5.359999999999793</v>
       </c>
       <c r="BQ12" t="n">
         <v>1485.73</v>
@@ -6319,7 +6319,7 @@
         <v>19.6</v>
       </c>
       <c r="BS12" t="n">
-        <v>372.8000000000005</v>
+        <v>283.840000000005</v>
       </c>
       <c r="BT12" t="n">
         <v>7535.37</v>
@@ -6328,7 +6328,7 @@
         <v>13.83</v>
       </c>
       <c r="BV12" t="n">
-        <v>232.6900000000003</v>
+        <v>7.77999999999949</v>
       </c>
       <c r="BW12" t="n">
         <v>8621.08</v>
@@ -6337,7 +6337,7 @@
         <v>19</v>
       </c>
       <c r="BY12" t="n">
-        <v>90.1799999999995</v>
+        <v>1.779999999998537</v>
       </c>
       <c r="BZ12" t="n">
         <v>4960.69</v>
@@ -6355,7 +6355,7 @@
         <v>12.23</v>
       </c>
       <c r="CE12" t="n">
-        <v>697.05</v>
+        <v>287.5900000000016</v>
       </c>
       <c r="CF12" t="n">
         <v>4701.33</v>
@@ -6364,7 +6364,7 @@
         <v>-0.86</v>
       </c>
       <c r="CH12" t="n">
-        <v>125.5999999999997</v>
+        <v>49.6299999999995</v>
       </c>
       <c r="CI12" t="n">
         <v>2638.6</v>
@@ -6373,7 +6373,7 @@
         <v>-9.470000000000001</v>
       </c>
       <c r="CK12" t="n">
-        <v>75.84999999999957</v>
+        <v>7.039999999998514</v>
       </c>
       <c r="CL12" t="n">
         <v>5138.99</v>
@@ -6382,7 +6382,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="CN12" t="n">
-        <v>13.60000000000002</v>
+        <v>2.170000000000172</v>
       </c>
       <c r="CO12" t="n">
         <v>318.17</v>
@@ -6391,7 +6391,7 @@
         <v>5.64</v>
       </c>
       <c r="CQ12" t="n">
-        <v>57.25000000000011</v>
+        <v>27.48000000000041</v>
       </c>
       <c r="CR12" t="n">
         <v>1680.32</v>
@@ -6400,7 +6400,7 @@
         <v>13.06</v>
       </c>
       <c r="CT12" t="n">
-        <v>36.63</v>
+        <v>2.79999999999999</v>
       </c>
       <c r="CU12" t="n">
         <v>2566.55</v>
@@ -6418,7 +6418,7 @@
         <v>11.34</v>
       </c>
       <c r="CZ12" t="n">
-        <v>31.57</v>
+        <v>5.069999999999679</v>
       </c>
       <c r="DA12" t="n">
         <v>343.68</v>
@@ -6427,7 +6427,7 @@
         <v>13.64</v>
       </c>
       <c r="DC12" t="n">
-        <v>49.03000000000011</v>
+        <v>8.380000000000216</v>
       </c>
       <c r="DD12" t="n">
         <v>1533.29</v>
@@ -6445,7 +6445,7 @@
         <v>12.32</v>
       </c>
       <c r="DI12" t="n">
-        <v>95.06999999999996</v>
+        <v>5.929999999999247</v>
       </c>
       <c r="DJ12" t="n">
         <v>1734.1</v>
@@ -6454,7 +6454,7 @@
         <v>7.09</v>
       </c>
       <c r="DL12" t="n">
-        <v>296.2400000000002</v>
+        <v>247.8000000000014</v>
       </c>
       <c r="DM12" t="n">
         <v>5543.03</v>
@@ -6463,7 +6463,7 @@
         <v>14.91</v>
       </c>
       <c r="DO12" t="n">
-        <v>18.47</v>
+        <v>3.470000000000004</v>
       </c>
       <c r="DP12" t="n">
         <v>172.3</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.78</v>
+        <v>2.100000000000108</v>
       </c>
       <c r="C13" t="n">
         <v>281.33</v>
@@ -6608,7 +6608,7 @@
         <v>14.79</v>
       </c>
       <c r="E13" t="n">
-        <v>544.3399999999999</v>
+        <v>423.8999999999986</v>
       </c>
       <c r="F13" t="n">
         <v>834.11</v>
@@ -6617,7 +6617,7 @@
         <v>16.22</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88000000000001</v>
+        <v>65.12000000000002</v>
       </c>
       <c r="I13" t="n">
         <v>120.14</v>
@@ -6626,7 +6626,7 @@
         <v>7.38</v>
       </c>
       <c r="K13" t="n">
-        <v>80.89</v>
+        <v>37.61000000000079</v>
       </c>
       <c r="L13" t="n">
         <v>139.35</v>
@@ -6644,7 +6644,7 @@
         <v>-34.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>513.3899999999999</v>
+        <v>172.1999999999999</v>
       </c>
       <c r="R13" t="n">
         <v>807.48</v>
@@ -6662,7 +6662,7 @@
         <v>-5.55</v>
       </c>
       <c r="W13" t="n">
-        <v>153.87</v>
+        <v>21.45999999999856</v>
       </c>
       <c r="X13" t="n">
         <v>301.04</v>
@@ -6671,7 +6671,7 @@
         <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>50.73999999999999</v>
+        <v>0.2200000000001907</v>
       </c>
       <c r="AA13" t="n">
         <v>99.48</v>
@@ -6680,7 +6680,7 @@
         <v>12.46</v>
       </c>
       <c r="AC13" t="n">
-        <v>162.01</v>
+        <v>6.229999999996592</v>
       </c>
       <c r="AD13" t="n">
         <v>270.73</v>
@@ -6689,7 +6689,7 @@
         <v>9.289999999999999</v>
       </c>
       <c r="AF13" t="n">
-        <v>31.3</v>
+        <v>7.119999999999902</v>
       </c>
       <c r="AG13" t="n">
         <v>60.68</v>
@@ -6698,7 +6698,7 @@
         <v>17.66</v>
       </c>
       <c r="AI13" t="n">
-        <v>7616.59</v>
+        <v>3116.890000000061</v>
       </c>
       <c r="AJ13" t="n">
         <v>13016.42</v>
@@ -6707,7 +6707,7 @@
         <v>10.34</v>
       </c>
       <c r="AL13" t="n">
-        <v>46.31999999999999</v>
+        <v>33.39999999999975</v>
       </c>
       <c r="AM13" t="n">
         <v>85.48999999999999</v>
@@ -6716,7 +6716,7 @@
         <v>12.61</v>
       </c>
       <c r="AO13" t="n">
-        <v>266.2</v>
+        <v>120.7200000000008</v>
       </c>
       <c r="AP13" t="n">
         <v>420.18</v>
@@ -6725,7 +6725,7 @@
         <v>15.37</v>
       </c>
       <c r="AR13" t="n">
-        <v>187.72</v>
+        <v>72.48000000000025</v>
       </c>
       <c r="AS13" t="n">
         <v>290.15</v>
@@ -6734,7 +6734,7 @@
         <v>-1.38</v>
       </c>
       <c r="AU13" t="n">
-        <v>31.7</v>
+        <v>1.28999999999991</v>
       </c>
       <c r="AV13" t="n">
         <v>48.43</v>
@@ -6743,7 +6743,7 @@
         <v>11.65</v>
       </c>
       <c r="AX13" t="n">
-        <v>188.99</v>
+        <v>83.9099999999996</v>
       </c>
       <c r="AY13" t="n">
         <v>350.05</v>
@@ -6752,7 +6752,7 @@
         <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>59.45999999999999</v>
+        <v>5.570000000000052</v>
       </c>
       <c r="BB13" t="n">
         <v>80.81</v>
@@ -6761,7 +6761,7 @@
         <v>10.91</v>
       </c>
       <c r="BD13" t="n">
-        <v>10.46</v>
+        <v>8.93999999999996</v>
       </c>
       <c r="BE13" t="n">
         <v>15.35</v>
@@ -6770,7 +6770,7 @@
         <v>-6.61</v>
       </c>
       <c r="BG13" t="n">
-        <v>70.70999999999999</v>
+        <v>13.27999999999943</v>
       </c>
       <c r="BH13" t="n">
         <v>109.66</v>
@@ -6779,7 +6779,7 @@
         <v>17.27</v>
       </c>
       <c r="BJ13" t="n">
-        <v>133.82</v>
+        <v>34.13999999999999</v>
       </c>
       <c r="BK13" t="n">
         <v>353.17</v>
@@ -6788,7 +6788,7 @@
         <v>36.24</v>
       </c>
       <c r="BM13" t="n">
-        <v>24.71000000000001</v>
+        <v>7.760000000000087</v>
       </c>
       <c r="BN13" t="n">
         <v>46.58</v>
@@ -6797,7 +6797,7 @@
         <v>7.31</v>
       </c>
       <c r="BP13" t="n">
-        <v>103.73</v>
+        <v>43.63000000000071</v>
       </c>
       <c r="BQ13" t="n">
         <v>281.92</v>
@@ -6806,7 +6806,7 @@
         <v>43.15</v>
       </c>
       <c r="BS13" t="n">
-        <v>692.5199999999999</v>
+        <v>13.63999999999538</v>
       </c>
       <c r="BT13" t="n">
         <v>1135.31</v>
@@ -6815,7 +6815,7 @@
         <v>12.59</v>
       </c>
       <c r="BV13" t="n">
-        <v>741.3999999999999</v>
+        <v>377.8800000000004</v>
       </c>
       <c r="BW13" t="n">
         <v>1256.86</v>
@@ -6824,7 +6824,7 @@
         <v>16.93</v>
       </c>
       <c r="BY13" t="n">
-        <v>405.54</v>
+        <v>221.620000000004</v>
       </c>
       <c r="BZ13" t="n">
         <v>655.34</v>
@@ -6833,7 +6833,7 @@
         <v>13.01</v>
       </c>
       <c r="CB13" t="n">
-        <v>103.59</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="CC13" t="n">
         <v>181.8</v>
@@ -6842,7 +6842,7 @@
         <v>13.09</v>
       </c>
       <c r="CE13" t="n">
-        <v>375.8400000000001</v>
+        <v>57.4199999999999</v>
       </c>
       <c r="CF13" t="n">
         <v>584.5599999999999</v>
@@ -6851,7 +6851,7 @@
         <v>-16.14</v>
       </c>
       <c r="CH13" t="n">
-        <v>228.54</v>
+        <v>3.6800000000013</v>
       </c>
       <c r="CI13" t="n">
         <v>346.46</v>
@@ -6860,7 +6860,7 @@
         <v>-21.22</v>
       </c>
       <c r="CK13" t="n">
-        <v>422.2200000000001</v>
+        <v>118.8200000000017</v>
       </c>
       <c r="CL13" t="n">
         <v>690.3</v>
@@ -6869,7 +6869,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="CN13" t="n">
-        <v>25.13999999999999</v>
+        <v>1.879999999999921</v>
       </c>
       <c r="CO13" t="n">
         <v>47.57</v>
@@ -6878,7 +6878,7 @@
         <v>8.9</v>
       </c>
       <c r="CQ13" t="n">
-        <v>133.72</v>
+        <v>21.50999999999907</v>
       </c>
       <c r="CR13" t="n">
         <v>244.65</v>
@@ -6887,7 +6887,7 @@
         <v>11.8</v>
       </c>
       <c r="CT13" t="n">
-        <v>200.02</v>
+        <v>53.49999999999999</v>
       </c>
       <c r="CU13" t="n">
         <v>349.7</v>
@@ -6896,7 +6896,7 @@
         <v>19.3</v>
       </c>
       <c r="CW13" t="n">
-        <v>269.84</v>
+        <v>239.8800000000016</v>
       </c>
       <c r="CX13" t="n">
         <v>448.84</v>
@@ -6905,7 +6905,7 @@
         <v>12.83</v>
       </c>
       <c r="CZ13" t="n">
-        <v>25.78</v>
+        <v>0.9100000000000499</v>
       </c>
       <c r="DA13" t="n">
         <v>40.86</v>
@@ -6914,7 +6914,7 @@
         <v>29.41</v>
       </c>
       <c r="DC13" t="n">
-        <v>116.72</v>
+        <v>42.54999999999924</v>
       </c>
       <c r="DD13" t="n">
         <v>234.11</v>
@@ -6923,7 +6923,7 @@
         <v>11.01</v>
       </c>
       <c r="DF13" t="n">
-        <v>293.65</v>
+        <v>54.0099999999992</v>
       </c>
       <c r="DG13" t="n">
         <v>537.39</v>
@@ -6932,7 +6932,7 @@
         <v>13.23</v>
       </c>
       <c r="DI13" t="n">
-        <v>137.69</v>
+        <v>30.76000000000155</v>
       </c>
       <c r="DJ13" t="n">
         <v>276.87</v>
@@ -6941,7 +6941,7 @@
         <v>6.35</v>
       </c>
       <c r="DL13" t="n">
-        <v>429.02</v>
+        <v>132.7799999999998</v>
       </c>
       <c r="DM13" t="n">
         <v>818.3200000000001</v>
@@ -6950,7 +6950,7 @@
         <v>10.33</v>
       </c>
       <c r="DO13" t="n">
-        <v>14.44</v>
+        <v>0.9699999999999989</v>
       </c>
       <c r="DP13" t="n">
         <v>22.95</v>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.67</v>
+        <v>171.4699999999998</v>
       </c>
       <c r="C14" t="n">
         <v>487.16</v>
@@ -7095,7 +7095,7 @@
         <v>15.5</v>
       </c>
       <c r="E14" t="n">
-        <v>530.53</v>
+        <v>16.30000000000041</v>
       </c>
       <c r="F14" t="n">
         <v>1468.18</v>
@@ -7113,7 +7113,7 @@
         <v>9.1</v>
       </c>
       <c r="K14" t="n">
-        <v>74.74000000000001</v>
+        <v>18.43999999999991</v>
       </c>
       <c r="L14" t="n">
         <v>227.39</v>
@@ -7149,7 +7149,7 @@
         <v>-1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>150.53</v>
+        <v>17.09000000000006</v>
       </c>
       <c r="X14" t="n">
         <v>487.21</v>
@@ -7185,7 +7185,7 @@
         <v>17.1</v>
       </c>
       <c r="AI14" t="n">
-        <v>7603.84</v>
+        <v>2459.969999999994</v>
       </c>
       <c r="AJ14" t="n">
         <v>21487.82</v>
@@ -7221,7 +7221,7 @@
         <v>-0.3</v>
       </c>
       <c r="AU14" t="n">
-        <v>31.47000000000001</v>
+        <v>30.1800000000001</v>
       </c>
       <c r="AV14" t="n">
         <v>79.5</v>
@@ -7230,7 +7230,7 @@
         <v>5.9</v>
       </c>
       <c r="AX14" t="n">
-        <v>187.16</v>
+        <v>24.44000000000008</v>
       </c>
       <c r="AY14" t="n">
         <v>558.35</v>
@@ -7239,7 +7239,7 @@
         <v>13.2</v>
       </c>
       <c r="BA14" t="n">
-        <v>52.89000000000001</v>
+        <v>30.10999999999994</v>
       </c>
       <c r="BB14" t="n">
         <v>146.14</v>
@@ -7248,7 +7248,7 @@
         <v>10.4</v>
       </c>
       <c r="BD14" t="n">
-        <v>9.800000000000004</v>
+        <v>0.1000000000000245</v>
       </c>
       <c r="BE14" t="n">
         <v>25.72</v>
@@ -7275,7 +7275,7 @@
         <v>31.3</v>
       </c>
       <c r="BM14" t="n">
-        <v>21.14</v>
+        <v>4.859999999999978</v>
       </c>
       <c r="BN14" t="n">
         <v>71.33</v>
@@ -7293,7 +7293,7 @@
         <v>38.5</v>
       </c>
       <c r="BS14" t="n">
-        <v>596.1499999999999</v>
+        <v>276.4300000000006</v>
       </c>
       <c r="BT14" t="n">
         <v>1906.89</v>
@@ -7302,7 +7302,7 @@
         <v>12.1</v>
       </c>
       <c r="BV14" t="n">
-        <v>684.5100000000002</v>
+        <v>175.8000000000006</v>
       </c>
       <c r="BW14" t="n">
         <v>2109.11</v>
@@ -7329,7 +7329,7 @@
         <v>10.4</v>
       </c>
       <c r="CE14" t="n">
-        <v>373.6299999999999</v>
+        <v>258.7900000000001</v>
       </c>
       <c r="CF14" t="n">
         <v>937.4400000000001</v>
@@ -7338,7 +7338,7 @@
         <v>-12.6</v>
       </c>
       <c r="CH14" t="n">
-        <v>5.969999999999999</v>
+        <v>2.289999999998699</v>
       </c>
       <c r="CI14" t="n">
         <v>526.58</v>
@@ -7347,7 +7347,7 @@
         <v>-21.2</v>
       </c>
       <c r="CK14" t="n">
-        <v>413.8199999999999</v>
+        <v>67.44999999999936</v>
       </c>
       <c r="CL14" t="n">
         <v>1173.66</v>
@@ -7356,7 +7356,7 @@
         <v>10.7</v>
       </c>
       <c r="CN14" t="n">
-        <v>24.14</v>
+        <v>8.84000000000019</v>
       </c>
       <c r="CO14" t="n">
         <v>75.54000000000001</v>
@@ -7392,7 +7392,7 @@
         <v>12.3</v>
       </c>
       <c r="CZ14" t="n">
-        <v>2.399999999999999</v>
+        <v>0.579999999999899</v>
       </c>
       <c r="DA14" t="n">
         <v>70.63</v>
@@ -7401,7 +7401,7 @@
         <v>23.2</v>
       </c>
       <c r="DC14" t="n">
-        <v>112.15</v>
+        <v>44.46000000000012</v>
       </c>
       <c r="DD14" t="n">
         <v>382.15</v>
@@ -7437,7 +7437,7 @@
         <v>11.9</v>
       </c>
       <c r="DO14" t="n">
-        <v>13.52</v>
+        <v>11.58</v>
       </c>
       <c r="DP14" t="n">
         <v>38.87</v>
@@ -7582,7 +7582,7 @@
         <v>18.3</v>
       </c>
       <c r="E15" t="n">
-        <v>504.1499999999999</v>
+        <v>471.5499999999991</v>
       </c>
       <c r="F15" t="n">
         <v>2158.11</v>
@@ -7591,7 +7591,7 @@
         <v>20.4</v>
       </c>
       <c r="H15" t="n">
-        <v>72.80000000000001</v>
+        <v>30.88000000000009</v>
       </c>
       <c r="I15" t="n">
         <v>281.76</v>
@@ -7618,7 +7618,7 @@
         <v>-22.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>485.1699999999998</v>
+        <v>408.2499999999986</v>
       </c>
       <c r="R15" t="n">
         <v>1962.98</v>
@@ -7645,7 +7645,7 @@
         <v>19.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>53.66</v>
+        <v>32.57999999999988</v>
       </c>
       <c r="AA15" t="n">
         <v>214.91</v>
@@ -7654,7 +7654,7 @@
         <v>10.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.75</v>
+        <v>1.029999999999972</v>
       </c>
       <c r="AD15" t="n">
         <v>646.54</v>
@@ -7681,7 +7681,7 @@
         <v>11.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>48.43000000000001</v>
+        <v>36.02999999999997</v>
       </c>
       <c r="AM15" t="n">
         <v>189.99</v>
@@ -7690,7 +7690,7 @@
         <v>10.7</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.08000000000004</v>
+        <v>0.920000000000071</v>
       </c>
       <c r="AP15" t="n">
         <v>1066.4</v>
@@ -7699,7 +7699,7 @@
         <v>18.3</v>
       </c>
       <c r="AR15" t="n">
-        <v>12.60000000000002</v>
+        <v>6.68000000000006</v>
       </c>
       <c r="AS15" t="n">
         <v>685.49</v>
@@ -7717,7 +7717,7 @@
         <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>185.2800000000001</v>
+        <v>136.3999999999999</v>
       </c>
       <c r="AY15" t="n">
         <v>750.05</v>
@@ -7735,7 +7735,7 @@
         <v>11.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>7.549999999999997</v>
+        <v>7.449999999999973</v>
       </c>
       <c r="BE15" t="n">
         <v>33</v>
@@ -7744,7 +7744,7 @@
         <v>-10.1</v>
       </c>
       <c r="BG15" t="n">
-        <v>70.33000000000001</v>
+        <v>65.89000000000001</v>
       </c>
       <c r="BH15" t="n">
         <v>265.49</v>
@@ -7753,7 +7753,7 @@
         <v>12.5</v>
       </c>
       <c r="BJ15" t="n">
-        <v>109.6900000000001</v>
+        <v>11.01000000000003</v>
       </c>
       <c r="BK15" t="n">
         <v>688.12</v>
@@ -7762,7 +7762,7 @@
         <v>24.8</v>
       </c>
       <c r="BM15" t="n">
-        <v>20.05</v>
+        <v>2.190000000000033</v>
       </c>
       <c r="BN15" t="n">
         <v>96.22</v>
@@ -7780,7 +7780,7 @@
         <v>35</v>
       </c>
       <c r="BS15" t="n">
-        <v>595.7700000000004</v>
+        <v>42.90999999999934</v>
       </c>
       <c r="BT15" t="n">
         <v>2603.64</v>
@@ -7789,7 +7789,7 @@
         <v>13.4</v>
       </c>
       <c r="BV15" t="n">
-        <v>657.7599999999998</v>
+        <v>306.1599999999985</v>
       </c>
       <c r="BW15" t="n">
         <v>2903.06</v>
@@ -7798,7 +7798,7 @@
         <v>16.1</v>
       </c>
       <c r="BY15" t="n">
-        <v>40.40000000000003</v>
+        <v>7.850000000000122</v>
       </c>
       <c r="BZ15" t="n">
         <v>1571.32</v>
@@ -7807,7 +7807,7 @@
         <v>12.1</v>
       </c>
       <c r="CB15" t="n">
-        <v>13.55</v>
+        <v>13.23</v>
       </c>
       <c r="CC15" t="n">
         <v>416.28</v>
@@ -7825,7 +7825,7 @@
         <v>-10</v>
       </c>
       <c r="CH15" t="n">
-        <v>18.20000000000002</v>
+        <v>0.2900000000000222</v>
       </c>
       <c r="CI15" t="n">
         <v>742.67</v>
@@ -7852,7 +7852,7 @@
         <v>10</v>
       </c>
       <c r="CQ15" t="n">
-        <v>4.539999999999992</v>
+        <v>0.879999999999995</v>
       </c>
       <c r="CR15" t="n">
         <v>549.71</v>
@@ -7861,7 +7861,7 @@
         <v>12.2</v>
       </c>
       <c r="CT15" t="n">
-        <v>19.78</v>
+        <v>7.340000000000066</v>
       </c>
       <c r="CU15" t="n">
         <v>818.5700000000001</v>
@@ -7870,7 +7870,7 @@
         <v>17.6</v>
       </c>
       <c r="CW15" t="n">
-        <v>21.2799999999998</v>
+        <v>5.809999999999659</v>
       </c>
       <c r="CX15" t="n">
         <v>1077.15</v>
@@ -7879,7 +7879,7 @@
         <v>13</v>
       </c>
       <c r="CZ15" t="n">
-        <v>26.23999999999999</v>
+        <v>17.55000000000004</v>
       </c>
       <c r="DA15" t="n">
         <v>102.27</v>
@@ -7897,7 +7897,7 @@
         <v>17.8</v>
       </c>
       <c r="DF15" t="n">
-        <v>297.4300000000001</v>
+        <v>278.5900000000005</v>
       </c>
       <c r="DG15" t="n">
         <v>1183.67</v>
@@ -7915,7 +7915,7 @@
         <v>6.7</v>
       </c>
       <c r="DL15" t="n">
-        <v>455.3599999999999</v>
+        <v>244.3199999999999</v>
       </c>
       <c r="DM15" t="n">
         <v>1838.71</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.40000000000001</v>
+        <v>0.9799999999999933</v>
       </c>
       <c r="C16" t="n">
         <v>929.08</v>
@@ -8087,7 +8087,7 @@
         <v>11</v>
       </c>
       <c r="K16" t="n">
-        <v>77.66000000000003</v>
+        <v>42.82000000000011</v>
       </c>
       <c r="L16" t="n">
         <v>406.51</v>
@@ -8114,7 +8114,7 @@
         <v>10.5</v>
       </c>
       <c r="T16" t="n">
-        <v>77.09999999999997</v>
+        <v>62.57999999999976</v>
       </c>
       <c r="U16" t="n">
         <v>393.99</v>
@@ -8141,7 +8141,7 @@
         <v>10.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>170.48</v>
+        <v>154.78</v>
       </c>
       <c r="AD16" t="n">
         <v>850.15</v>
@@ -8150,7 +8150,7 @@
         <v>13.3</v>
       </c>
       <c r="AF16" t="n">
-        <v>33.16</v>
+        <v>33.04000000000014</v>
       </c>
       <c r="AG16" t="n">
         <v>177.88</v>
@@ -8159,7 +8159,7 @@
         <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>456.9500000000044</v>
+        <v>37.7900000000156</v>
       </c>
       <c r="AJ16" t="n">
         <v>39005.7</v>
@@ -8177,7 +8177,7 @@
         <v>13.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.939999999999998</v>
+        <v>0.09999999999980091</v>
       </c>
       <c r="AP16" t="n">
         <v>1416.51</v>
@@ -8195,7 +8195,7 @@
         <v>2.9</v>
       </c>
       <c r="AU16" t="n">
-        <v>32.12</v>
+        <v>18.48000000000012</v>
       </c>
       <c r="AV16" t="n">
         <v>148.82</v>
@@ -8258,7 +8258,7 @@
         <v>4.9</v>
       </c>
       <c r="BP16" t="n">
-        <v>4.280000000000101</v>
+        <v>1.600000000000549</v>
       </c>
       <c r="BQ16" t="n">
         <v>720.1799999999999</v>
@@ -8285,7 +8285,7 @@
         <v>17.2</v>
       </c>
       <c r="BY16" t="n">
-        <v>56.37000000000006</v>
+        <v>8.119999999999909</v>
       </c>
       <c r="BZ16" t="n">
         <v>2073.56</v>
@@ -8294,7 +8294,7 @@
         <v>11.6</v>
       </c>
       <c r="CB16" t="n">
-        <v>117.11</v>
+        <v>63.39</v>
       </c>
       <c r="CC16" t="n">
         <v>542.6900000000001</v>
@@ -8303,7 +8303,7 @@
         <v>11.8</v>
       </c>
       <c r="CE16" t="n">
-        <v>398.8299999999997</v>
+        <v>81.86999999999887</v>
       </c>
       <c r="CF16" t="n">
         <v>1738.61</v>
@@ -8312,7 +8312,7 @@
         <v>-8.5</v>
       </c>
       <c r="CH16" t="n">
-        <v>14.09999999999988</v>
+        <v>1.579999999999839</v>
       </c>
       <c r="CI16" t="n">
         <v>983.89</v>
@@ -8330,7 +8330,7 @@
         <v>11.8</v>
       </c>
       <c r="CN16" t="n">
-        <v>1.740000000000002</v>
+        <v>0.299999999999994</v>
       </c>
       <c r="CO16" t="n">
         <v>128.47</v>
@@ -8348,7 +8348,7 @@
         <v>12.3</v>
       </c>
       <c r="CT16" t="n">
-        <v>10.72</v>
+        <v>0.2699999999999498</v>
       </c>
       <c r="CU16" t="n">
         <v>1085.36</v>
@@ -8357,7 +8357,7 @@
         <v>18.1</v>
       </c>
       <c r="CW16" t="n">
-        <v>15.27000000000021</v>
+        <v>3.65000000000089</v>
       </c>
       <c r="CX16" t="n">
         <v>1429.9</v>
@@ -8393,7 +8393,7 @@
         <v>12.6</v>
       </c>
       <c r="DI16" t="n">
-        <v>11.1099999999999</v>
+        <v>0.7499999999999432</v>
       </c>
       <c r="DJ16" t="n">
         <v>733.14</v>
@@ -8411,7 +8411,7 @@
         <v>13.9</v>
       </c>
       <c r="DO16" t="n">
-        <v>4.15</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="DP16" t="n">
         <v>72.25</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>157.2400000000001</v>
+        <v>127.1900000000001</v>
       </c>
       <c r="C17" t="n">
         <v>1158.05</v>
@@ -8556,7 +8556,7 @@
         <v>17.6</v>
       </c>
       <c r="E17" t="n">
-        <v>460.5500000000002</v>
+        <v>383.109999999999</v>
       </c>
       <c r="F17" t="n">
         <v>3538.41</v>
@@ -8565,7 +8565,7 @@
         <v>25.5</v>
       </c>
       <c r="H17" t="n">
-        <v>65.49000000000001</v>
+        <v>30.49000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>458.88</v>
@@ -8583,7 +8583,7 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1099999999999999</v>
+        <v>0.009999999999999336</v>
       </c>
       <c r="O17" t="n">
         <v>0.87</v>
@@ -8592,7 +8592,7 @@
         <v>-35.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>471.8600000000001</v>
+        <v>123.1799999999988</v>
       </c>
       <c r="R17" t="n">
         <v>3153.38</v>
@@ -8601,7 +8601,7 @@
         <v>10.2</v>
       </c>
       <c r="T17" t="n">
-        <v>68.89000000000004</v>
+        <v>2.680000000000234</v>
       </c>
       <c r="U17" t="n">
         <v>473.52</v>
@@ -8610,7 +8610,7 @@
         <v>4.1</v>
       </c>
       <c r="W17" t="n">
-        <v>147.01</v>
+        <v>134.73</v>
       </c>
       <c r="X17" t="n">
         <v>1039.73</v>
@@ -8619,7 +8619,7 @@
         <v>17.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>56.47999999999996</v>
+        <v>32.67999999999992</v>
       </c>
       <c r="AA17" t="n">
         <v>339</v>
@@ -8646,7 +8646,7 @@
         <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>7579.660000000003</v>
+        <v>6380.599999999969</v>
       </c>
       <c r="AJ17" t="n">
         <v>48503.32</v>
@@ -8664,7 +8664,7 @@
         <v>12.9</v>
       </c>
       <c r="AO17" t="n">
-        <v>253.0600000000002</v>
+        <v>234.2200000000004</v>
       </c>
       <c r="AP17" t="n">
         <v>1780.77</v>
@@ -8673,7 +8673,7 @@
         <v>20.8</v>
       </c>
       <c r="AR17" t="n">
-        <v>181.1500000000001</v>
+        <v>175.7900000000001</v>
       </c>
       <c r="AS17" t="n">
         <v>1121.38</v>
@@ -8691,7 +8691,7 @@
         <v>9.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>191.3199999999999</v>
+        <v>157.7600000000003</v>
       </c>
       <c r="AY17" t="n">
         <v>1185.5</v>
@@ -8700,7 +8700,7 @@
         <v>11.9</v>
       </c>
       <c r="BA17" t="n">
-        <v>53.50999999999999</v>
+        <v>48.46999999999991</v>
       </c>
       <c r="BB17" t="n">
         <v>341.57</v>
@@ -8709,7 +8709,7 @@
         <v>12.2</v>
       </c>
       <c r="BD17" t="n">
-        <v>4.879999999999995</v>
+        <v>2.399999999999975</v>
       </c>
       <c r="BE17" t="n">
         <v>48.2</v>
@@ -8718,7 +8718,7 @@
         <v>-8.1</v>
       </c>
       <c r="BG17" t="n">
-        <v>69.02999999999997</v>
+        <v>56.66999999999997</v>
       </c>
       <c r="BH17" t="n">
         <v>431.08</v>
@@ -8736,7 +8736,7 @@
         <v>25.6</v>
       </c>
       <c r="BM17" t="n">
-        <v>19.78999999999999</v>
+        <v>19.62999999999999</v>
       </c>
       <c r="BN17" t="n">
         <v>137.65</v>
@@ -8745,7 +8745,7 @@
         <v>6.4</v>
       </c>
       <c r="BP17" t="n">
-        <v>121.51</v>
+        <v>108.409999999999</v>
       </c>
       <c r="BQ17" t="n">
         <v>884.1799999999999</v>
@@ -8754,7 +8754,7 @@
         <v>33.4</v>
       </c>
       <c r="BS17" t="n">
-        <v>68.63999999999942</v>
+        <v>9.390000000000772</v>
       </c>
       <c r="BT17" t="n">
         <v>4002.63</v>
@@ -8763,7 +8763,7 @@
         <v>14.1</v>
       </c>
       <c r="BV17" t="n">
-        <v>701.6099999999997</v>
+        <v>247.3699999999981</v>
       </c>
       <c r="BW17" t="n">
         <v>4646.55</v>
@@ -8772,7 +8772,7 @@
         <v>18.2</v>
       </c>
       <c r="BY17" t="n">
-        <v>443.79</v>
+        <v>339.51</v>
       </c>
       <c r="BZ17" t="n">
         <v>2626.17</v>
@@ -8790,7 +8790,7 @@
         <v>13.6</v>
       </c>
       <c r="CE17" t="n">
-        <v>396.1900000000001</v>
+        <v>76.60000000000059</v>
       </c>
       <c r="CF17" t="n">
         <v>2109.34</v>
@@ -8799,7 +8799,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="CH17" t="n">
-        <v>224.25</v>
+        <v>192.3100000000004</v>
       </c>
       <c r="CI17" t="n">
         <v>1233.53</v>
@@ -8808,7 +8808,7 @@
         <v>-13.3</v>
       </c>
       <c r="CK17" t="n">
-        <v>405.4700000000003</v>
+        <v>382.7100000000005</v>
       </c>
       <c r="CL17" t="n">
         <v>2632.94</v>
@@ -8817,7 +8817,7 @@
         <v>13.3</v>
       </c>
       <c r="CN17" t="n">
-        <v>26.78999999999999</v>
+        <v>24.15000000000002</v>
       </c>
       <c r="CO17" t="n">
         <v>161.65</v>
@@ -8826,7 +8826,7 @@
         <v>10.8</v>
       </c>
       <c r="CQ17" t="n">
-        <v>136</v>
+        <v>134.48</v>
       </c>
       <c r="CR17" t="n">
         <v>878.6</v>
@@ -8835,7 +8835,7 @@
         <v>13.5</v>
       </c>
       <c r="CT17" t="n">
-        <v>208.26</v>
+        <v>165.38</v>
       </c>
       <c r="CU17" t="n">
         <v>1365.34</v>
@@ -8844,7 +8844,7 @@
         <v>18.4</v>
       </c>
       <c r="CW17" t="n">
-        <v>293.6799999999998</v>
+        <v>250.029999999998</v>
       </c>
       <c r="CX17" t="n">
         <v>1809.75</v>
@@ -8853,7 +8853,7 @@
         <v>14.4</v>
       </c>
       <c r="CZ17" t="n">
-        <v>29.39000000000001</v>
+        <v>9.66999999999997</v>
       </c>
       <c r="DA17" t="n">
         <v>173.45</v>
@@ -8862,7 +8862,7 @@
         <v>21.3</v>
       </c>
       <c r="DC17" t="n">
-        <v>108.26</v>
+        <v>85.90000000000039</v>
       </c>
       <c r="DD17" t="n">
         <v>826.84</v>
@@ -8871,7 +8871,7 @@
         <v>20.8</v>
       </c>
       <c r="DF17" t="n">
-        <v>298.9000000000001</v>
+        <v>133.7000000000005</v>
       </c>
       <c r="DG17" t="n">
         <v>1941.58</v>
@@ -8880,7 +8880,7 @@
         <v>14</v>
       </c>
       <c r="DI17" t="n">
-        <v>153.59</v>
+        <v>135.0500000000004</v>
       </c>
       <c r="DJ17" t="n">
         <v>911.22</v>
@@ -8889,7 +8889,7 @@
         <v>6.1</v>
       </c>
       <c r="DL17" t="n">
-        <v>464.5799999999999</v>
+        <v>391.6599999999991</v>
       </c>
       <c r="DM17" t="n">
         <v>2950.1</v>
@@ -8898,7 +8898,7 @@
         <v>14.3</v>
       </c>
       <c r="DO17" t="n">
-        <v>16.16000000000001</v>
+        <v>6.160000000000012</v>
       </c>
       <c r="DP17" t="n">
         <v>94.01000000000001</v>
@@ -9061,7 +9061,7 @@
         <v>11</v>
       </c>
       <c r="K18" t="n">
-        <v>80.65000000000009</v>
+        <v>52.01000000000045</v>
       </c>
       <c r="L18" t="n">
         <v>593.53</v>
@@ -9070,7 +9070,7 @@
         <v>14.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.0200000000000018</v>
       </c>
       <c r="O18" t="n">
         <v>0.97</v>
@@ -9115,7 +9115,7 @@
         <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>164.01</v>
+        <v>145.6900000000004</v>
       </c>
       <c r="AD18" t="n">
         <v>1241.84</v>
@@ -9169,7 +9169,7 @@
         <v>5.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>30.44</v>
+        <v>19.92</v>
       </c>
       <c r="AV18" t="n">
         <v>222.89</v>
@@ -9196,7 +9196,7 @@
         <v>13</v>
       </c>
       <c r="BD18" t="n">
-        <v>3.730000000000004</v>
+        <v>0.09000000000001895</v>
       </c>
       <c r="BE18" t="n">
         <v>53.57</v>
@@ -9205,7 +9205,7 @@
         <v>-6.5</v>
       </c>
       <c r="BG18" t="n">
-        <v>66.71999999999997</v>
+        <v>0.7800000000000011</v>
       </c>
       <c r="BH18" t="n">
         <v>517.46</v>
@@ -9259,7 +9259,7 @@
         <v>18.6</v>
       </c>
       <c r="BY18" t="n">
-        <v>418.0799999999999</v>
+        <v>30.65999999999991</v>
       </c>
       <c r="BZ18" t="n">
         <v>3118.2</v>
@@ -9277,7 +9277,7 @@
         <v>13.1</v>
       </c>
       <c r="CE18" t="n">
-        <v>339.4700000000003</v>
+        <v>186.2699999999991</v>
       </c>
       <c r="CF18" t="n">
         <v>2517.88</v>
@@ -9313,7 +9313,7 @@
         <v>11.1</v>
       </c>
       <c r="CQ18" t="n">
-        <v>134.9</v>
+        <v>0.03999999999999204</v>
       </c>
       <c r="CR18" t="n">
         <v>1039.68</v>
@@ -9340,7 +9340,7 @@
         <v>15</v>
       </c>
       <c r="CZ18" t="n">
-        <v>28.35999999999999</v>
+        <v>3.899999999999988</v>
       </c>
       <c r="DA18" t="n">
         <v>204.96</v>
@@ -9367,7 +9367,7 @@
         <v>13.7</v>
       </c>
       <c r="DI18" t="n">
-        <v>138.89</v>
+        <v>2.339999999999776</v>
       </c>
       <c r="DJ18" t="n">
         <v>1072.93</v>
@@ -9385,7 +9385,7 @@
         <v>15.5</v>
       </c>
       <c r="DO18" t="n">
-        <v>14.66</v>
+        <v>2.64999999999999</v>
       </c>
       <c r="DP18" t="n">
         <v>110.44</v>
@@ -9530,7 +9530,7 @@
         <v>19.9</v>
       </c>
       <c r="E19" t="n">
-        <v>41.19999999999987</v>
+        <v>12.54000000000007</v>
       </c>
       <c r="F19" t="n">
         <v>4847.48</v>
@@ -9539,7 +9539,7 @@
         <v>28.6</v>
       </c>
       <c r="H19" t="n">
-        <v>83.26999999999998</v>
+        <v>8.829999999999931</v>
       </c>
       <c r="I19" t="n">
         <v>625.01</v>
@@ -9557,7 +9557,7 @@
         <v>13.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1999999999999999</v>
+        <v>0.02999999999999818</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
@@ -9566,7 +9566,7 @@
         <v>-25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>512.7199999999998</v>
+        <v>235.5200000000009</v>
       </c>
       <c r="R19" t="n">
         <v>4329.02</v>
@@ -9593,7 +9593,7 @@
         <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.939999999999998</v>
+        <v>0.5699999999999372</v>
       </c>
       <c r="AA19" t="n">
         <v>463.17</v>
@@ -9611,7 +9611,7 @@
         <v>13.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.900000000000006</v>
+        <v>0.6200000000000401</v>
       </c>
       <c r="AG19" t="n">
         <v>292.73</v>
@@ -9620,7 +9620,7 @@
         <v>18.4</v>
       </c>
       <c r="AI19" t="n">
-        <v>354.7300000000032</v>
+        <v>149.6900000000087</v>
       </c>
       <c r="AJ19" t="n">
         <v>66486.75999999999</v>
@@ -9629,7 +9629,7 @@
         <v>14.1</v>
       </c>
       <c r="AL19" t="n">
-        <v>3.480000000000025</v>
+        <v>1.320000000000197</v>
       </c>
       <c r="AM19" t="n">
         <v>442.29</v>
@@ -9638,7 +9638,7 @@
         <v>13.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>271.8200000000002</v>
+        <v>193.3800000000018</v>
       </c>
       <c r="AP19" t="n">
         <v>2424.38</v>
@@ -9665,7 +9665,7 @@
         <v>6.4</v>
       </c>
       <c r="AX19" t="n">
-        <v>21.01000000000002</v>
+        <v>2.129999999999857</v>
       </c>
       <c r="AY19" t="n">
         <v>1630.62</v>
@@ -9674,7 +9674,7 @@
         <v>12.3</v>
       </c>
       <c r="BA19" t="n">
-        <v>52.59000000000003</v>
+        <v>45.62999999999999</v>
       </c>
       <c r="BB19" t="n">
         <v>464.01</v>
@@ -9683,7 +9683,7 @@
         <v>12.3</v>
       </c>
       <c r="BD19" t="n">
-        <v>3.390000000000001</v>
+        <v>3.299999999999982</v>
       </c>
       <c r="BE19" t="n">
         <v>58.56</v>
@@ -9692,7 +9692,7 @@
         <v>-4</v>
       </c>
       <c r="BG19" t="n">
-        <v>7.080000000000098</v>
+        <v>5.520000000000095</v>
       </c>
       <c r="BH19" t="n">
         <v>599.34</v>
@@ -9701,7 +9701,7 @@
         <v>16.3</v>
       </c>
       <c r="BJ19" t="n">
-        <v>26.69</v>
+        <v>7.730000000000079</v>
       </c>
       <c r="BK19" t="n">
         <v>1305.15</v>
@@ -9719,7 +9719,7 @@
         <v>9.6</v>
       </c>
       <c r="BP19" t="n">
-        <v>10.68000000000001</v>
+        <v>0.1799999999997128</v>
       </c>
       <c r="BQ19" t="n">
         <v>1202.6</v>
@@ -9728,7 +9728,7 @@
         <v>32.3</v>
       </c>
       <c r="BS19" t="n">
-        <v>640.0099999999993</v>
+        <v>605.3299999999936</v>
       </c>
       <c r="BT19" t="n">
         <v>5596.65</v>
@@ -9737,7 +9737,7 @@
         <v>14.6</v>
       </c>
       <c r="BV19" t="n">
-        <v>114.6599999999989</v>
+        <v>28.9199999999973</v>
       </c>
       <c r="BW19" t="n">
         <v>6402.62</v>
@@ -9755,7 +9755,7 @@
         <v>10.3</v>
       </c>
       <c r="CB19" t="n">
-        <v>123.7800000000001</v>
+        <v>103.8200000000001</v>
       </c>
       <c r="CC19" t="n">
         <v>969.27</v>
@@ -9773,7 +9773,7 @@
         <v>-5.2</v>
       </c>
       <c r="CH19" t="n">
-        <v>232.9700000000003</v>
+        <v>170.0500000000003</v>
       </c>
       <c r="CI19" t="n">
         <v>1690.02</v>
@@ -9782,7 +9782,7 @@
         <v>-10.4</v>
       </c>
       <c r="CK19" t="n">
-        <v>33.48999999999978</v>
+        <v>15.23000000000007</v>
       </c>
       <c r="CL19" t="n">
         <v>3619.91</v>
@@ -9809,7 +9809,7 @@
         <v>15.2</v>
       </c>
       <c r="CT19" t="n">
-        <v>12.73999999999981</v>
+        <v>5.159999999999712</v>
       </c>
       <c r="CU19" t="n">
         <v>1886.3</v>
@@ -9818,7 +9818,7 @@
         <v>19.6</v>
       </c>
       <c r="CW19" t="n">
-        <v>23.07000000000011</v>
+        <v>7.049999999999448</v>
       </c>
       <c r="CX19" t="n">
         <v>2512.61</v>
@@ -9827,7 +9827,7 @@
         <v>15.4</v>
       </c>
       <c r="CZ19" t="n">
-        <v>28.19999999999999</v>
+        <v>20.40000000000001</v>
       </c>
       <c r="DA19" t="n">
         <v>238.87</v>
@@ -9836,7 +9836,7 @@
         <v>19</v>
       </c>
       <c r="DC19" t="n">
-        <v>21.2800000000002</v>
+        <v>9.330000000000311</v>
       </c>
       <c r="DD19" t="n">
         <v>1099.72</v>
@@ -9845,7 +9845,7 @@
         <v>20.5</v>
       </c>
       <c r="DF19" t="n">
-        <v>31.48999999999961</v>
+        <v>2.689999999999653</v>
       </c>
       <c r="DG19" t="n">
         <v>2654.24</v>
@@ -9854,7 +9854,7 @@
         <v>15</v>
       </c>
       <c r="DI19" t="n">
-        <v>11.46000000000012</v>
+        <v>9.120000000000344</v>
       </c>
       <c r="DJ19" t="n">
         <v>1240.19</v>
@@ -9863,7 +9863,7 @@
         <v>7.7</v>
       </c>
       <c r="DL19" t="n">
-        <v>454.9000000000001</v>
+        <v>355.2199999999997</v>
       </c>
       <c r="DM19" t="n">
         <v>4049.58</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.21</v>
+        <v>132.5700000000004</v>
       </c>
       <c r="C20" t="n">
         <v>1820.96</v>
@@ -10017,7 +10017,7 @@
         <v>20.9</v>
       </c>
       <c r="E20" t="n">
-        <v>519.2299999999996</v>
+        <v>440.4099999999994</v>
       </c>
       <c r="F20" t="n">
         <v>5579.68</v>
@@ -10026,7 +10026,7 @@
         <v>29.7</v>
       </c>
       <c r="H20" t="n">
-        <v>83.25999999999999</v>
+        <v>18.60000000000002</v>
       </c>
       <c r="I20" t="n">
         <v>739.01</v>
@@ -10035,7 +10035,7 @@
         <v>15.2</v>
       </c>
       <c r="K20" t="n">
-        <v>83.53999999999996</v>
+        <v>65.54000000000042</v>
       </c>
       <c r="L20" t="n">
         <v>778.5</v>
@@ -10044,7 +10044,7 @@
         <v>13.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.24</v>
+        <v>0.04000000000000009</v>
       </c>
       <c r="O20" t="n">
         <v>1.47</v>
@@ -10062,7 +10062,7 @@
         <v>12.2</v>
       </c>
       <c r="T20" t="n">
-        <v>3.600000000000023</v>
+        <v>2.959999999999695</v>
       </c>
       <c r="U20" t="n">
         <v>764.95</v>
@@ -10071,7 +10071,7 @@
         <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>12.7000000000001</v>
+        <v>1.179999999999664</v>
       </c>
       <c r="X20" t="n">
         <v>1579.66</v>
@@ -10080,7 +10080,7 @@
         <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>60.14999999999998</v>
+        <v>55.50000000000017</v>
       </c>
       <c r="AA20" t="n">
         <v>529.9299999999999</v>
@@ -10089,7 +10089,7 @@
         <v>9.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>171.4199999999998</v>
+        <v>113.8999999999994</v>
       </c>
       <c r="AD20" t="n">
         <v>1636.28</v>
@@ -10098,7 +10098,7 @@
         <v>13.8</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.599999999999994</v>
+        <v>0.3599999999999139</v>
       </c>
       <c r="AG20" t="n">
         <v>333.02</v>
@@ -10107,7 +10107,7 @@
         <v>17.7</v>
       </c>
       <c r="AI20" t="n">
-        <v>7982.419999999998</v>
+        <v>7178.619999999969</v>
       </c>
       <c r="AJ20" t="n">
         <v>76272.13</v>
@@ -10116,7 +10116,7 @@
         <v>14.9</v>
       </c>
       <c r="AL20" t="n">
-        <v>60.88000000000005</v>
+        <v>50.1999999999997</v>
       </c>
       <c r="AM20" t="n">
         <v>507.85</v>
@@ -10134,7 +10134,7 @@
         <v>21.9</v>
       </c>
       <c r="AR20" t="n">
-        <v>183.54</v>
+        <v>121.3399999999992</v>
       </c>
       <c r="AS20" t="n">
         <v>1757.45</v>
@@ -10143,7 +10143,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AU20" t="n">
-        <v>31.19999999999999</v>
+        <v>5.429999999999991</v>
       </c>
       <c r="AV20" t="n">
         <v>292.37</v>
@@ -10152,7 +10152,7 @@
         <v>5.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>213.0400000000002</v>
+        <v>176.2000000000006</v>
       </c>
       <c r="AY20" t="n">
         <v>1873.53</v>
@@ -10179,7 +10179,7 @@
         <v>-0.2</v>
       </c>
       <c r="BG20" t="n">
-        <v>71.49000000000001</v>
+        <v>43.94999999999961</v>
       </c>
       <c r="BH20" t="n">
         <v>683.65</v>
@@ -10188,7 +10188,7 @@
         <v>16</v>
       </c>
       <c r="BJ20" t="n">
-        <v>145.5899999999999</v>
+        <v>67.2699999999998</v>
       </c>
       <c r="BK20" t="n">
         <v>1485.58</v>
@@ -10206,7 +10206,7 @@
         <v>10.5</v>
       </c>
       <c r="BP20" t="n">
-        <v>14.38999999999979</v>
+        <v>0.02999999999996694</v>
       </c>
       <c r="BQ20" t="n">
         <v>1368.45</v>
@@ -10224,7 +10224,7 @@
         <v>15</v>
       </c>
       <c r="BV20" t="n">
-        <v>814.3400000000001</v>
+        <v>570.0500000000084</v>
       </c>
       <c r="BW20" t="n">
         <v>7453.75</v>
@@ -10233,7 +10233,7 @@
         <v>19.5</v>
       </c>
       <c r="BY20" t="n">
-        <v>401.6600000000003</v>
+        <v>383.9799999999999</v>
       </c>
       <c r="BZ20" t="n">
         <v>4052.96</v>
@@ -10251,7 +10251,7 @@
         <v>14.4</v>
       </c>
       <c r="CE20" t="n">
-        <v>368.77</v>
+        <v>230.9300000000021</v>
       </c>
       <c r="CF20" t="n">
         <v>3330.34</v>
@@ -10260,7 +10260,7 @@
         <v>-2.3</v>
       </c>
       <c r="CH20" t="n">
-        <v>214.3399999999997</v>
+        <v>12.82999999999939</v>
       </c>
       <c r="CI20" t="n">
         <v>1924.6</v>
@@ -10278,7 +10278,7 @@
         <v>15.3</v>
       </c>
       <c r="CN20" t="n">
-        <v>28.16000000000003</v>
+        <v>28.00000000000007</v>
       </c>
       <c r="CO20" t="n">
         <v>258.79</v>
@@ -10287,7 +10287,7 @@
         <v>11.9</v>
       </c>
       <c r="CQ20" t="n">
-        <v>146.95</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="CR20" t="n">
         <v>1377.32</v>
@@ -10296,7 +10296,7 @@
         <v>15</v>
       </c>
       <c r="CT20" t="n">
-        <v>7.080000000000211</v>
+        <v>1.920000000000498</v>
       </c>
       <c r="CU20" t="n">
         <v>2157.91</v>
@@ -10305,7 +10305,7 @@
         <v>19.5</v>
       </c>
       <c r="CW20" t="n">
-        <v>321.0099999999998</v>
+        <v>268.7800000000009</v>
       </c>
       <c r="CX20" t="n">
         <v>2894.09</v>
@@ -10323,7 +10323,7 @@
         <v>18.2</v>
       </c>
       <c r="DC20" t="n">
-        <v>129.96</v>
+        <v>80.68999999999886</v>
       </c>
       <c r="DD20" t="n">
         <v>1269.56</v>
@@ -10332,7 +10332,7 @@
         <v>20.4</v>
       </c>
       <c r="DF20" t="n">
-        <v>322.96</v>
+        <v>240.2000000000016</v>
       </c>
       <c r="DG20" t="n">
         <v>3080.46</v>
@@ -10341,7 +10341,7 @@
         <v>16.4</v>
       </c>
       <c r="DI20" t="n">
-        <v>126.29</v>
+        <v>80.44999999999956</v>
       </c>
       <c r="DJ20" t="n">
         <v>1408.55</v>
@@ -10359,7 +10359,7 @@
         <v>15.9</v>
       </c>
       <c r="DO20" t="n">
-        <v>15.25</v>
+        <v>8.090000000000002</v>
       </c>
       <c r="DP20" t="n">
         <v>146.71</v>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>182.4400000000001</v>
+        <v>11.89000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>2047.68</v>
@@ -10531,7 +10531,7 @@
         <v>14.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.03999999999999992</v>
       </c>
       <c r="O21" t="n">
         <v>1.7</v>
@@ -10549,7 +10549,7 @@
         <v>13.57</v>
       </c>
       <c r="T21" t="n">
-        <v>79.90999999999997</v>
+        <v>66.47000000000037</v>
       </c>
       <c r="U21" t="n">
         <v>862.37</v>
@@ -10558,7 +10558,7 @@
         <v>13.94</v>
       </c>
       <c r="W21" t="n">
-        <v>14.4399999999998</v>
+        <v>1.7399999999997</v>
       </c>
       <c r="X21" t="n">
         <v>1782.45</v>
@@ -10585,7 +10585,7 @@
         <v>14.29</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.059999999999995</v>
+        <v>2.280000000000059</v>
       </c>
       <c r="AG21" t="n">
         <v>376.4</v>
@@ -10603,7 +10603,7 @@
         <v>15.67</v>
       </c>
       <c r="AL21" t="n">
-        <v>57.96999999999997</v>
+        <v>0.5699999999999434</v>
       </c>
       <c r="AM21" t="n">
         <v>578.66</v>
@@ -10612,7 +10612,7 @@
         <v>13.04</v>
       </c>
       <c r="AO21" t="n">
-        <v>280.23</v>
+        <v>228.5900000000008</v>
       </c>
       <c r="AP21" t="n">
         <v>3131.47</v>
@@ -10648,7 +10648,7 @@
         <v>12.29</v>
       </c>
       <c r="BA21" t="n">
-        <v>63.62</v>
+        <v>18.06000000000028</v>
       </c>
       <c r="BB21" t="n">
         <v>597.7</v>
@@ -10657,7 +10657,7 @@
         <v>12.85</v>
       </c>
       <c r="BD21" t="n">
-        <v>5.160000000000011</v>
+        <v>0.08000000000002716</v>
       </c>
       <c r="BE21" t="n">
         <v>71.58</v>
@@ -10666,7 +10666,7 @@
         <v>1.26</v>
       </c>
       <c r="BG21" t="n">
-        <v>70.57999999999993</v>
+        <v>6.170000000000016</v>
       </c>
       <c r="BH21" t="n">
         <v>771.51</v>
@@ -10684,7 +10684,7 @@
         <v>17.97</v>
       </c>
       <c r="BM21" t="n">
-        <v>3.309999999999981</v>
+        <v>0.03999999999998094</v>
       </c>
       <c r="BN21" t="n">
         <v>232.93</v>
@@ -10693,7 +10693,7 @@
         <v>12.11</v>
       </c>
       <c r="BP21" t="n">
-        <v>146.72</v>
+        <v>124.8800000000006</v>
       </c>
       <c r="BQ21" t="n">
         <v>1535.65</v>
@@ -10738,7 +10738,7 @@
         <v>14.94</v>
       </c>
       <c r="CE21" t="n">
-        <v>358.3999999999996</v>
+        <v>24.08999999999907</v>
       </c>
       <c r="CF21" t="n">
         <v>3794.44</v>
@@ -10747,7 +10747,7 @@
         <v>0.47</v>
       </c>
       <c r="CH21" t="n">
-        <v>188.5100000000002</v>
+        <v>175.6800000000008</v>
       </c>
       <c r="CI21" t="n">
         <v>2184.28</v>
@@ -10756,7 +10756,7 @@
         <v>-6.41</v>
       </c>
       <c r="CK21" t="n">
-        <v>24.71000000000055</v>
+        <v>12.04000000000048</v>
       </c>
       <c r="CL21" t="n">
         <v>4711.57</v>
@@ -10783,7 +10783,7 @@
         <v>15.84</v>
       </c>
       <c r="CT21" t="n">
-        <v>226.9400000000001</v>
+        <v>208.9399999999987</v>
       </c>
       <c r="CU21" t="n">
         <v>2452.21</v>
@@ -10828,7 +10828,7 @@
         <v>17.37</v>
       </c>
       <c r="DI21" t="n">
-        <v>111.3199999999999</v>
+        <v>7.950000000000088</v>
       </c>
       <c r="DJ21" t="n">
         <v>1549.68</v>
@@ -10837,7 +10837,7 @@
         <v>8.51</v>
       </c>
       <c r="DL21" t="n">
-        <v>451.6000000000004</v>
+        <v>441.920000000002</v>
       </c>
       <c r="DM21" t="n">
         <v>5210.65</v>
@@ -10989,7 +10989,7 @@
         <v>21.91</v>
       </c>
       <c r="E22" t="n">
-        <v>1548.47</v>
+        <v>1334.07</v>
       </c>
       <c r="F22" t="n">
         <v>6981.98</v>
@@ -11012,7 +11012,7 @@
         <v>14.47</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3199999999999998</v>
+        <v>0.03999999999999968</v>
       </c>
       <c r="O22" t="n">
         <v>1.81</v>
@@ -11028,7 +11028,7 @@
         <v>14.59</v>
       </c>
       <c r="T22" t="n">
-        <v>993.1799999999999</v>
+        <v>694.4999999999999</v>
       </c>
       <c r="U22" t="n">
         <v>963.08</v>
@@ -11037,7 +11037,7 @@
         <v>15.09</v>
       </c>
       <c r="W22" t="n">
-        <v>4100.43</v>
+        <v>4080.770000000001</v>
       </c>
       <c r="X22" t="n">
         <v>1989.43</v>
@@ -11046,7 +11046,7 @@
         <v>17.23</v>
       </c>
       <c r="Z22" t="n">
-        <v>987.2</v>
+        <v>977.72</v>
       </c>
       <c r="AA22" t="n">
         <v>670.1900000000001</v>
@@ -11055,7 +11055,7 @@
         <v>10.18</v>
       </c>
       <c r="AC22" t="n">
-        <v>647.9799999999999</v>
+        <v>630.0999999999984</v>
       </c>
       <c r="AD22" t="n">
         <v>2052.58</v>
@@ -11064,7 +11064,7 @@
         <v>14.96</v>
       </c>
       <c r="AF22" t="n">
-        <v>257.55</v>
+        <v>234.91</v>
       </c>
       <c r="AG22" t="n">
         <v>424.94</v>
@@ -11073,7 +11073,7 @@
         <v>16.25</v>
       </c>
       <c r="AI22" t="n">
-        <v>1906.720000000001</v>
+        <v>965.7200000000009</v>
       </c>
       <c r="AJ22" t="n">
         <v>96096.34</v>
@@ -11082,7 +11082,7 @@
         <v>16.35</v>
       </c>
       <c r="AL22" t="n">
-        <v>58.20000000000003</v>
+        <v>0.2300000000000608</v>
       </c>
       <c r="AM22" t="n">
         <v>648.34</v>
@@ -11100,7 +11100,7 @@
         <v>22.94</v>
       </c>
       <c r="AR22" t="n">
-        <v>3246.51</v>
+        <v>3244.79</v>
       </c>
       <c r="AS22" t="n">
         <v>2228.87</v>
@@ -11109,7 +11109,7 @@
         <v>12.74</v>
       </c>
       <c r="AU22" t="n">
-        <v>12.36000000000001</v>
+        <v>1.879999999999991</v>
       </c>
       <c r="AV22" t="n">
         <v>372.45</v>
@@ -11118,7 +11118,7 @@
         <v>8.66</v>
       </c>
       <c r="AX22" t="n">
-        <v>55.91999999999979</v>
+        <v>13.62000000000006</v>
       </c>
       <c r="AY22" t="n">
         <v>2362.42</v>
@@ -11127,7 +11127,7 @@
         <v>11.78</v>
       </c>
       <c r="BA22" t="n">
-        <v>777.6799999999999</v>
+        <v>591.5399999999996</v>
       </c>
       <c r="BB22" t="n">
         <v>667.1799999999999</v>
@@ -11136,7 +11136,7 @@
         <v>12.46</v>
       </c>
       <c r="BD22" t="n">
-        <v>9.769999999999996</v>
+        <v>1.829999999999912</v>
       </c>
       <c r="BE22" t="n">
         <v>78.40000000000001</v>
@@ -11145,7 +11145,7 @@
         <v>0.01</v>
       </c>
       <c r="BG22" t="n">
-        <v>127.0100000000001</v>
+        <v>44.09000000000015</v>
       </c>
       <c r="BH22" t="n">
         <v>856.5700000000001</v>
@@ -11154,7 +11154,7 @@
         <v>17.11</v>
       </c>
       <c r="BJ22" t="n">
-        <v>144.5599999999999</v>
+        <v>122.2799999999991</v>
       </c>
       <c r="BK22" t="n">
         <v>1827.34</v>
@@ -11163,7 +11163,7 @@
         <v>17.78</v>
       </c>
       <c r="BM22" t="n">
-        <v>17.80000000000004</v>
+        <v>11.10000000000012</v>
       </c>
       <c r="BN22" t="n">
         <v>262.26</v>
@@ -11188,7 +11188,7 @@
         <v>15.92</v>
       </c>
       <c r="BV22" t="n">
-        <v>148.1300000000001</v>
+        <v>87.97000000000014</v>
       </c>
       <c r="BW22" t="n">
         <v>9499.469999999999</v>
@@ -11197,7 +11197,7 @@
         <v>20.57</v>
       </c>
       <c r="BY22" t="n">
-        <v>1273.23</v>
+        <v>1230.95</v>
       </c>
       <c r="BZ22" t="n">
         <v>5054.89</v>
@@ -11213,7 +11213,7 @@
         <v>14.62</v>
       </c>
       <c r="CE22" t="n">
-        <v>86.86000000000064</v>
+        <v>38.68000000000251</v>
       </c>
       <c r="CF22" t="n">
         <v>4257.17</v>
@@ -11231,7 +11231,7 @@
         <v>-2.84</v>
       </c>
       <c r="CK22" t="n">
-        <v>1231.32</v>
+        <v>1170.489999999999</v>
       </c>
       <c r="CL22" t="n">
         <v>5301.19</v>
@@ -11240,7 +11240,7 @@
         <v>15.9</v>
       </c>
       <c r="CN22" t="n">
-        <v>3.700000000000053</v>
+        <v>2.460000000000285</v>
       </c>
       <c r="CO22" t="n">
         <v>324.23</v>
@@ -11249,7 +11249,7 @@
         <v>12.6</v>
       </c>
       <c r="CQ22" t="n">
-        <v>244.7400000000001</v>
+        <v>191.2600000000005</v>
       </c>
       <c r="CR22" t="n">
         <v>1736.37</v>
@@ -11258,7 +11258,7 @@
         <v>15.37</v>
       </c>
       <c r="CT22" t="n">
-        <v>1975.07</v>
+        <v>1104.630000000001</v>
       </c>
       <c r="CU22" t="n">
         <v>2740.11</v>
@@ -11267,7 +11267,7 @@
         <v>20.81</v>
       </c>
       <c r="CW22" t="n">
-        <v>1674.34</v>
+        <v>1667.259999999999</v>
       </c>
       <c r="CX22" t="n">
         <v>3682.12</v>
@@ -11276,7 +11276,7 @@
         <v>17.07</v>
       </c>
       <c r="CZ22" t="n">
-        <v>5.240000000000013</v>
+        <v>2.000000000000017</v>
       </c>
       <c r="DA22" t="n">
         <v>345.49</v>
@@ -11292,7 +11292,7 @@
         <v>20.16</v>
       </c>
       <c r="DF22" t="n">
-        <v>64.91999999999962</v>
+        <v>25.32999999999942</v>
       </c>
       <c r="DG22" t="n">
         <v>3916.72</v>
@@ -11301,7 +11301,7 @@
         <v>17.59</v>
       </c>
       <c r="DI22" t="n">
-        <v>1382.91</v>
+        <v>1041</v>
       </c>
       <c r="DJ22" t="n">
         <v>1685.93</v>
@@ -11310,7 +11310,7 @@
         <v>9.51</v>
       </c>
       <c r="DL22" t="n">
-        <v>3115.48</v>
+        <v>1323.599999999996</v>
       </c>
       <c r="DM22" t="n">
         <v>5790.68</v>
